--- a/din_isolated_SPI.xlsx
+++ b/din_isolated_SPI.xlsx
@@ -11,13 +11,13 @@
   </sheets>
   <definedNames>
     <definedName name="BoardQty">'din_isolated_SPI. '!$H$1</definedName>
-    <definedName name="digikey_part_data">'din_isolated_SPI. '!$I$5:$M$13</definedName>
-    <definedName name="farnell_part_data">'din_isolated_SPI. '!$N$5:$R$13</definedName>
-    <definedName name="global_part_data">'din_isolated_SPI. '!$A$5:$H$13</definedName>
-    <definedName name="mouser_part_data">'din_isolated_SPI. '!$S$5:$W$13</definedName>
-    <definedName name="newark_part_data">'din_isolated_SPI. '!$X$5:$AB$13</definedName>
-    <definedName name="rs_part_data">'din_isolated_SPI. '!$AC$5:$AG$13</definedName>
-    <definedName name="tme_part_data">'din_isolated_SPI. '!$AH$5:$AL$13</definedName>
+    <definedName name="digikey_part_data">'din_isolated_SPI. '!$I$5:$M$11</definedName>
+    <definedName name="farnell_part_data">'din_isolated_SPI. '!$N$5:$R$11</definedName>
+    <definedName name="global_part_data">'din_isolated_SPI. '!$A$5:$H$11</definedName>
+    <definedName name="mouser_part_data">'din_isolated_SPI. '!$S$5:$W$11</definedName>
+    <definedName name="newark_part_data">'din_isolated_SPI. '!$X$5:$AB$11</definedName>
+    <definedName name="rs_part_data">'din_isolated_SPI. '!$AC$5:$AG$11</definedName>
+    <definedName name="tme_part_data">'din_isolated_SPI. '!$AH$5:$AL$11</definedName>
     <definedName name="TotalCost">'din_isolated_SPI. '!$H$3</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -169,7 +169,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Manufacturer number for each part.</t>
+          <t>Manufacturer number for each part and link to it's datasheet (ctrl-click).</t>
         </r>
       </text>
     </comment>
@@ -283,7 +283,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Distributor-assigned catalog number for each part and link to its web page (ctrl-click).</t>
+          <t>Distributor-assigned catalog number for each part and link to it's web page (ctrl-click). Extra distributor data is shown as comment.</t>
         </r>
       </text>
     </comment>
@@ -354,7 +354,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Distributor-assigned catalog number for each part and link to its web page (ctrl-click).</t>
+          <t>Distributor-assigned catalog number for each part and link to it's web page (ctrl-click). Extra distributor data is shown as comment.</t>
         </r>
       </text>
     </comment>
@@ -425,7 +425,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Distributor-assigned catalog number for each part and link to its web page (ctrl-click).</t>
+          <t>Distributor-assigned catalog number for each part and link to it's web page (ctrl-click). Extra distributor data is shown as comment.</t>
         </r>
       </text>
     </comment>
@@ -496,7 +496,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Distributor-assigned catalog number for each part and link to its web page (ctrl-click).</t>
+          <t>Distributor-assigned catalog number for each part and link to it's web page (ctrl-click). Extra distributor data is shown as comment.</t>
         </r>
       </text>
     </comment>
@@ -567,7 +567,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Distributor-assigned catalog number for each part and link to its web page (ctrl-click).</t>
+          <t>Distributor-assigned catalog number for each part and link to it's web page (ctrl-click). Extra distributor data is shown as comment.</t>
         </r>
       </text>
     </comment>
@@ -638,11 +638,76 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Distributor-assigned catalog number for each part and link to its web page (ctrl-click).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z9" authorId="0">
+          <t>Distributor-assigned catalog number for each part and link to it's web page (ctrl-click). Extra distributor data is shown as comment.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.08      $0.08
+   100   $0.08      $8.46
+   500   $0.06     $27.92
+  2500   $0.04     $95.97</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.08      $0.08
+ 15000   $0.08   $1200.00
+ 30000   $0.08   $2340.00
+ 75000   $0.08   $5775.00
+105000   $0.07   $7875.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -665,7 +730,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X11" authorId="0">
+    <comment ref="N9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -678,7 +743,41 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z11" authorId="0">
+    <comment ref="P9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.03      $0.03
+    25   $0.02      $0.57
+    50   $0.02      $1.00
+   100   $0.02      $1.76
+   250   $0.02      $4.08
+   500   $0.01      $7.48</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -697,7 +796,53 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z12" authorId="0">
+    <comment ref="P10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $2.46      $2.46
+    10   $2.23     $22.31
+    25   $2.17     $54.22
+    50   $2.13    $106.57
+   100   $2.09    $209.40
+   250   $2.08    $520.37
+   500   $2.03   $1015.82
+  1000   $1.97   $1969.31</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $2.02      $2.02
+    10   $1.96     $19.60
+    25   $1.95     $48.75
+    50   $1.91     $95.50
+   100   $1.88    $188.00
+   250   $1.86    $465.00
+   500   $1.82    $910.00
+  1000   $1.75   $1750.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -719,7 +864,29 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z13" authorId="0">
+    <comment ref="P11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $1.30      $1.30
+    10   $1.30     $12.96
+    50   $1.18     $59.02
+   100   $1.06    $106.44
+   250   $0.89    $223.42
+   500   $0.72    $360.83
+  1500   $0.66    $987.15</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -741,7 +908,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J15" authorId="0">
+    <comment ref="J13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -754,7 +921,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O15" authorId="0">
+    <comment ref="O13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -767,7 +934,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T15" authorId="0">
+    <comment ref="T13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -780,7 +947,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y15" authorId="0">
+    <comment ref="Y13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -793,7 +960,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD15" authorId="0">
+    <comment ref="AD13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -806,7 +973,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI15" authorId="0">
+    <comment ref="AI13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -824,7 +991,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
   <si>
     <t>Global Part Info</t>
   </si>
@@ -862,13 +1029,7 @@
     <t>Capacitors_SMD:C_0603</t>
   </si>
   <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>LOGO</t>
-  </si>
-  <si>
-    <t>Whatnick_logo:Whatnick_logo</t>
+    <t>0201ZD104KAT2A</t>
   </si>
   <si>
     <t>J1</t>
@@ -883,15 +1044,6 @@
     <t>53290-1080</t>
   </si>
   <si>
-    <t>LOGO1</t>
-  </si>
-  <si>
-    <t>Logo_Open_Hardware_Small</t>
-  </si>
-  <si>
-    <t>Symbols:OSHW-Symbol_6.7x6mm_SilkScreen</t>
-  </si>
-  <si>
     <t>R1-R12</t>
   </si>
   <si>
@@ -940,7 +1092,7 @@
     <t>Prj date:</t>
   </si>
   <si>
-    <t>10/09/2018 6:53:33 PM</t>
+    <t>10/09/2018 7:27:40 PM</t>
   </si>
   <si>
     <t>Board Qty:</t>
@@ -955,7 +1107,7 @@
     <t>$ date:</t>
   </si>
   <si>
-    <t>2018-09-10 18:54:00</t>
+    <t>2018-09-10 19:28:42</t>
   </si>
   <si>
     <t>Digi-Key</t>
@@ -973,21 +1125,39 @@
     <t>Farnell</t>
   </si>
   <si>
+    <t>2524957</t>
+  </si>
+  <si>
+    <t>NonStk</t>
+  </si>
+  <si>
+    <t>1514554</t>
+  </si>
+  <si>
+    <t>2423345</t>
+  </si>
+  <si>
+    <t>1667514</t>
+  </si>
+  <si>
     <t>Mouser</t>
   </si>
   <si>
+    <t>634-SI8661AB-B-IS1</t>
+  </si>
+  <si>
     <t>Newark</t>
   </si>
   <si>
+    <t>64W0241</t>
+  </si>
+  <si>
     <t>92M6865</t>
   </si>
   <si>
     <t>23AC3370</t>
   </si>
   <si>
-    <t>NonStk</t>
-  </si>
-  <si>
     <t>54X5756</t>
   </si>
   <si>
@@ -1003,7 +1173,7 @@
     <t>Tme</t>
   </si>
   <si>
-    <t>Distributors scraped by KiCost® v.0.1.43</t>
+    <t>Distributors scraped by KiCost® v.0.1.47</t>
   </si>
 </sst>
 </file>
@@ -1086,18 +1256,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF909090"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF909090"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1161,7 +1331,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -1217,10 +1387,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1558,7 +1728,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL22"/>
+  <dimension ref="A1:AL18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" ySplit="6" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
@@ -1611,13 +1781,13 @@
   <sheetData>
     <row r="1" spans="1:38">
       <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="H1" s="4">
         <v>100</v>
@@ -1625,11 +1795,11 @@
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3"/>
       <c r="G2" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H2" s="5">
         <f>TotalCost/BoardQty</f>
@@ -1638,73 +1808,73 @@
     </row>
     <row r="3" spans="1:38">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H3" s="6">
-        <f>SUM(H7:H13)</f>
+        <f>SUM(H7:H11)</f>
         <v>0</v>
       </c>
       <c r="L3" s="6">
-        <f>SUM(L7:L13)</f>
+        <f>SUM(L7:L11)</f>
         <v>0</v>
       </c>
       <c r="M3" s="7">
-        <f>(ROWS(L7:L13)-COUNTBLANK(L7:L13))&amp;" of "&amp;ROWS(L7:L13)&amp;" parts found"</f>
+        <f>(ROWS(L7:L11)-COUNTBLANK(L7:L11))&amp;" of "&amp;ROWS(L7:L11)&amp;" parts found"</f>
         <v>0</v>
       </c>
       <c r="Q3" s="6">
-        <f>SUM(Q7:Q13)</f>
+        <f>SUM(Q7:Q11)</f>
         <v>0</v>
       </c>
       <c r="R3" s="7">
-        <f>(ROWS(Q7:Q13)-COUNTBLANK(Q7:Q13))&amp;" of "&amp;ROWS(Q7:Q13)&amp;" parts found"</f>
+        <f>(ROWS(Q7:Q11)-COUNTBLANK(Q7:Q11))&amp;" of "&amp;ROWS(Q7:Q11)&amp;" parts found"</f>
         <v>0</v>
       </c>
       <c r="V3" s="6">
-        <f>SUM(V7:V13)</f>
+        <f>SUM(V7:V11)</f>
         <v>0</v>
       </c>
       <c r="W3" s="7">
-        <f>(ROWS(V7:V13)-COUNTBLANK(V7:V13))&amp;" of "&amp;ROWS(V7:V13)&amp;" parts found"</f>
+        <f>(ROWS(V7:V11)-COUNTBLANK(V7:V11))&amp;" of "&amp;ROWS(V7:V11)&amp;" parts found"</f>
         <v>0</v>
       </c>
       <c r="AA3" s="6">
-        <f>SUM(AA7:AA13)</f>
+        <f>SUM(AA7:AA11)</f>
         <v>0</v>
       </c>
       <c r="AB3" s="7">
-        <f>(ROWS(AA7:AA13)-COUNTBLANK(AA7:AA13))&amp;" of "&amp;ROWS(AA7:AA13)&amp;" parts found"</f>
+        <f>(ROWS(AA7:AA11)-COUNTBLANK(AA7:AA11))&amp;" of "&amp;ROWS(AA7:AA11)&amp;" parts found"</f>
         <v>0</v>
       </c>
       <c r="AF3" s="6">
-        <f>SUM(AF7:AF13)</f>
+        <f>SUM(AF7:AF11)</f>
         <v>0</v>
       </c>
       <c r="AG3" s="7">
-        <f>(ROWS(AF7:AF13)-COUNTBLANK(AF7:AF13))&amp;" of "&amp;ROWS(AF7:AF13)&amp;" parts found"</f>
+        <f>(ROWS(AF7:AF11)-COUNTBLANK(AF7:AF11))&amp;" of "&amp;ROWS(AF7:AF11)&amp;" parts found"</f>
         <v>0</v>
       </c>
       <c r="AK3" s="6">
-        <f>SUM(AK7:AK13)</f>
+        <f>SUM(AK7:AK11)</f>
         <v>0</v>
       </c>
       <c r="AL3" s="7">
-        <f>(ROWS(AK7:AK13)-COUNTBLANK(AK7:AK13))&amp;" of "&amp;ROWS(AK7:AK13)&amp;" parts found"</f>
+        <f>(ROWS(AK7:AK11)-COUNTBLANK(AK7:AK11))&amp;" of "&amp;ROWS(AK7:AK11)&amp;" parts found"</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:38">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:38">
@@ -1719,14 +1889,14 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
@@ -1740,21 +1910,21 @@
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
       <c r="X5" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y5" s="12"/>
       <c r="Z5" s="12"/>
       <c r="AA5" s="12"/>
       <c r="AB5" s="12"/>
       <c r="AC5" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD5" s="13"/>
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
       <c r="AG5" s="13"/>
       <c r="AH5" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI5" s="14"/>
       <c r="AJ5" s="14"/>
@@ -1787,10 +1957,10 @@
         <v>8</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K6" s="15" t="s">
         <v>7</v>
@@ -1799,13 +1969,13 @@
         <v>8</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="P6" s="15" t="s">
         <v>7</v>
@@ -1814,13 +1984,13 @@
         <v>8</v>
       </c>
       <c r="R6" s="15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="T6" s="15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U6" s="15" t="s">
         <v>7</v>
@@ -1829,13 +1999,13 @@
         <v>8</v>
       </c>
       <c r="W6" s="15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="X6" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Y6" s="15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Z6" s="15" t="s">
         <v>7</v>
@@ -1844,13 +2014,13 @@
         <v>8</v>
       </c>
       <c r="AB6" s="15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AC6" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AD6" s="15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="AE6" s="15" t="s">
         <v>7</v>
@@ -1859,13 +2029,13 @@
         <v>8</v>
       </c>
       <c r="AG6" s="15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AH6" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI6" s="15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="AJ6" s="15" t="s">
         <v>7</v>
@@ -1874,7 +2044,7 @@
         <v>8</v>
       </c>
       <c r="AL6" s="15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -1887,6 +2057,9 @@
       <c r="D7" s="16" t="s">
         <v>11</v>
       </c>
+      <c r="E7" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="F7" s="16">
         <f>BoardQty*2</f>
         <v>0</v>
@@ -1898,17 +2071,48 @@
       <c r="H7" s="17">
         <f>iferror(F7*G7,"")</f>
         <v>0</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="17">
+        <f>iferror(lookup(if(O7="",F7,O7),{0,1,100,500,2500},{0.0,0.08463056,0.08463056,0.055838719999999994,0.03838912}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="17">
+        <f>iferror(if(O7="",F7,O7)*P7,"")</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="X7" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z7" s="17">
+        <f>iferror(lookup(if(Y7="",F7,Y7),{0,1,15000,30000,75000,105000},{0.0,0.08,0.08,0.078,0.077,0.075}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="17">
+        <f>iferror(if(Y7="",F7,Y7)*Z7,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="19" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:38">
       <c r="A8" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="F8" s="16">
         <f>BoardQty*1</f>
@@ -1921,23 +2125,37 @@
       <c r="H8" s="17">
         <f>iferror(F8*G8,"")</f>
         <v>0</v>
+      </c>
+      <c r="X8" s="16">
+        <v>99</v>
+      </c>
+      <c r="Z8" s="17">
+        <f>iferror(lookup(if(Y8="",F8,Y8),{0,1,10,25,50,100,250,500,1000},{0.0,0.877,0.723,0.692,0.661,0.629,0.586,0.543,0.482}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="17">
+        <f>iferror(if(Y8="",F8,Y8)*Z8,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="19" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:38">
       <c r="A9" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F9" s="16">
-        <f>BoardQty*1</f>
+        <f>BoardQty*12</f>
         <v>0</v>
       </c>
       <c r="G9" s="17">
@@ -1948,30 +2166,50 @@
         <f>iferror(F9*G9,"")</f>
         <v>0</v>
       </c>
-      <c r="X9" s="16">
-        <v>99</v>
+      <c r="N9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="17">
+        <f>iferror(lookup(if(O9="",F9,O9),{0,1,25,50,100,250,500},{0.0,0.025177279999999996,0.02280912,0.020067039999999998,0.017574239999999998,0.01632784,0.0149568}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="17">
+        <f>iferror(if(O9="",F9,O9)*P9,"")</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="X9" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="Z9" s="17">
-        <f>iferror(lookup(if(Y9="",F9,Y9),{0,1,10,25,50,100,250,500,1000},{0.0,0.877,0.723,0.692,0.661,0.629,0.586,0.543,0.482}),"")</f>
+        <f>iferror(lookup(if(Y9="",F9,Y9),{0,1,10000,20000,40000},{0.0,0.008,0.008,0.007,0.007}),"")</f>
         <v>0</v>
       </c>
       <c r="AA9" s="17">
         <f>iferror(if(Y9="",F9,Y9)*Z9,"")</f>
         <v>0</v>
       </c>
-      <c r="AB9" s="18" t="s">
-        <v>51</v>
+      <c r="AB9" s="19" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:38">
       <c r="A10" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="F10" s="16">
         <f>BoardQty*1</f>
@@ -1984,23 +2222,65 @@
       <c r="H10" s="17">
         <f>iferror(F10*G10,"")</f>
         <v>0</v>
+      </c>
+      <c r="N10" s="16">
+        <v>34</v>
+      </c>
+      <c r="P10" s="17">
+        <f>iferror(lookup(if(O10="",F10,O10),{0,1,10,25,50,100,250,500,1000},{0.0,2.455408,2.231056,2.168736,2.131344,2.093952,2.081488,2.0316319999999997,1.969312}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="17">
+        <f>iferror(if(O10="",F10,O10)*P10,"")</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="S10" s="16">
+        <v>2234</v>
+      </c>
+      <c r="U10" s="17">
+        <f>iferror(lookup(if(T10="",F10,T10),{0,1,10,25,50,100,250,500,1000},{0.0,2.02,1.96,1.95,1.91,1.88,1.86,1.82,1.75}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="17">
+        <f>iferror(if(T10="",F10,T10)*U10,"")</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="X10" s="16">
+        <v>34</v>
+      </c>
+      <c r="Z10" s="17">
+        <f>iferror(lookup(if(Y10="",F10,Y10),{0,1,10,25,50,100,250,500},{0.0,2.14,1.98,1.95,1.91,1.88,1.86,1.82}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="17">
+        <f>iferror(if(Y10="",F10,Y10)*Z10,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="19" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:38">
       <c r="A11" s="16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F11" s="16">
-        <f>BoardQty*12</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="G11" s="17">
@@ -2011,654 +2291,437 @@
         <f>iferror(F11*G11,"")</f>
         <v>0</v>
       </c>
-      <c r="X11" s="19" t="s">
-        <v>53</v>
+      <c r="N11" s="16">
+        <v>459</v>
+      </c>
+      <c r="P11" s="17">
+        <f>iferror(lookup(if(O11="",F11,O11),{0,1,10,50,100,250,500,1500},{0.0,1.296256,1.296256,1.1803408,1.0644255999999999,0.8936687999999999,0.7216655999999999,0.6580992}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="17">
+        <f>iferror(if(O11="",F11,O11)*P11,"")</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="X11" s="16">
+        <v>429</v>
       </c>
       <c r="Z11" s="17">
-        <f>iferror(lookup(if(Y11="",F11,Y11),{0,1,10000,20000,40000},{0.0,0.008,0.008,0.007,0.007}),"")</f>
+        <f>iferror(lookup(if(Y11="",F11,Y11),{0,1,10,100,500,1000,5000,10000},{0.0,1.12,1.12,0.922,0.73,0.628,0.573,0.551}),"")</f>
         <v>0</v>
       </c>
       <c r="AA11" s="17">
         <f>iferror(if(Y11="",F11,Y11)*Z11,"")</f>
         <v>0</v>
       </c>
-      <c r="AB11" s="18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38">
-      <c r="A12" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="16">
-        <f>BoardQty*1</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="17">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2)))</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="17">
-        <f>iferror(F12*G12,"")</f>
-        <v>0</v>
-      </c>
-      <c r="X12" s="16">
-        <v>34</v>
-      </c>
-      <c r="Z12" s="17">
-        <f>iferror(lookup(if(Y12="",F12,Y12),{0,1,10,25,50,100,250,500},{0.0,2.14,1.98,1.95,1.91,1.88,1.86,1.82}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AA12" s="17">
-        <f>iferror(if(Y12="",F12,Y12)*Z12,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="18" t="s">
-        <v>54</v>
+      <c r="AB11" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC11" s="16">
+        <v>76</v>
+      </c>
+      <c r="AG11" s="19" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:38">
-      <c r="A13" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="16">
-        <f>BoardQty*1</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="17">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2)))</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="17">
-        <f>iferror(F13*G13,"")</f>
-        <v>0</v>
-      </c>
-      <c r="X13" s="16">
-        <v>429</v>
-      </c>
-      <c r="Z13" s="17">
-        <f>iferror(lookup(if(Y13="",F13,Y13),{0,1,10,100,500,1000,5000,10000},{0.0,1.12,1.12,0.922,0.73,0.628,0.573,0.551}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AA13" s="17">
-        <f>iferror(if(Y13="",F13,Y13)*Z13,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC13" s="16">
-        <v>76</v>
-      </c>
-      <c r="AG13" s="18" t="s">
-        <v>57</v>
+      <c r="A13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="7">
+        <f>IFERROR(IF(OR(J7:J11),COUNTIF(J7:J11,"&gt;0")&amp;" of "&amp;ROWS(J7:J11)&amp;" parts purchased",""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="7">
+        <f>IFERROR(IF(OR(O7:O11),COUNTIF(O7:O11,"&gt;0")&amp;" of "&amp;ROWS(O7:O11)&amp;" parts purchased",""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="7">
+        <f>IFERROR(IF(OR(T7:T11),COUNTIF(T7:T11,"&gt;0")&amp;" of "&amp;ROWS(T7:T11)&amp;" parts purchased",""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="7">
+        <f>IFERROR(IF(OR(Y7:Y11),COUNTIF(Y7:Y11,"&gt;0")&amp;" of "&amp;ROWS(Y7:Y11)&amp;" parts purchased",""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="7">
+        <f>IFERROR(IF(OR(AD7:AD11),COUNTIF(AD7:AD11,"&gt;0")&amp;" of "&amp;ROWS(AD7:AD11)&amp;" parts purchased",""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="7">
+        <f>IFERROR(IF(OR(AI7:AI11),COUNTIF(AI7:AI11,"&gt;0")&amp;" of "&amp;ROWS(AI7:AI11)&amp;" parts purchased",""),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38">
+      <c r="J14">
+        <f t="array" ref="J14">IFERROR(CONCATENATE(TEXT(INDEX($J$7:$J$11,SMALL(IF($M$7:$M$11&lt;&gt;"",IF($J$7:$J$11&lt;&gt;"",ROW($J$7:$J$11)-MIN(ROW($J$7:$J$11))+1,""),""),ROW()-ROW(A$14)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="array" ref="K14">IFERROR(CONCATENATE((INDEX($M$7:$M$11,SMALL(IF($M$7:$M$11&lt;&gt;"",IF($J$7:$J$11&lt;&gt;"",ROW($J$7:$J$11)-MIN(ROW($J$7:$J$11))+1,""),""),ROW()-ROW(A$14)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="array" ref="L14">IFERROR(CONCATENATE((INDEX($A$7:$A$11,SMALL(IF($M$7:$M$11&lt;&gt;"",IF($J$7:$J$11&lt;&gt;"",ROW($J$7:$J$11)-MIN(ROW($J$7:$J$11))+1,""),""),ROW()-ROW(A$14)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="array" ref="O14">IFERROR(CONCATENATE((INDEX($R$7:$R$11,SMALL(IF($R$7:$R$11&lt;&gt;"",IF($O$7:$O$11&lt;&gt;"",ROW($O$7:$O$11)-MIN(ROW($O$7:$O$11))+1,""),""),ROW()-ROW(A$14)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f t="array" ref="P14">IFERROR(CONCATENATE(TEXT(INDEX($O$7:$O$11,SMALL(IF($R$7:$R$11&lt;&gt;"",IF($O$7:$O$11&lt;&gt;"",ROW($O$7:$O$11)-MIN(ROW($O$7:$O$11))+1,""),""),ROW()-ROW(A$14)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="array" ref="Q14">IFERROR(CONCATENATE((INDEX($A$7:$A$11,SMALL(IF($R$7:$R$11&lt;&gt;"",IF($O$7:$O$11&lt;&gt;"",ROW($O$7:$O$11)-MIN(ROW($O$7:$O$11))+1,""),""),ROW()-ROW(A$14)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="array" ref="T14">IFERROR(CONCATENATE((INDEX($W$7:$W$11,SMALL(IF($W$7:$W$11&lt;&gt;"",IF($T$7:$T$11&lt;&gt;"",ROW($T$7:$T$11)-MIN(ROW($T$7:$T$11))+1,""),""),ROW()-ROW(A$14)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f t="array" ref="U14">IFERROR(CONCATENATE(TEXT(INDEX($T$7:$T$11,SMALL(IF($W$7:$W$11&lt;&gt;"",IF($T$7:$T$11&lt;&gt;"",ROW($T$7:$T$11)-MIN(ROW($T$7:$T$11))+1,""),""),ROW()-ROW(A$14)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <f t="array" ref="V14">IFERROR(CONCATENATE((INDEX($A$7:$A$11,SMALL(IF($W$7:$W$11&lt;&gt;"",IF($T$7:$T$11&lt;&gt;"",ROW($T$7:$T$11)-MIN(ROW($T$7:$T$11))+1,""),""),ROW()-ROW(A$14)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <f t="array" ref="Y14">IFERROR(CONCATENATE((INDEX($AB$7:$AB$11,SMALL(IF($AB$7:$AB$11&lt;&gt;"",IF($Y$7:$Y$11&lt;&gt;"",ROW($Y$7:$Y$11)-MIN(ROW($Y$7:$Y$11))+1,""),""),ROW()-ROW(A$14)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <f t="array" ref="Z14">IFERROR(CONCATENATE(TEXT(INDEX($Y$7:$Y$11,SMALL(IF($AB$7:$AB$11&lt;&gt;"",IF($Y$7:$Y$11&lt;&gt;"",ROW($Y$7:$Y$11)-MIN(ROW($Y$7:$Y$11))+1,""),""),ROW()-ROW(A$14)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <f t="array" ref="AA14">IFERROR(CONCATENATE((INDEX($A$7:$A$11,SMALL(IF($AB$7:$AB$11&lt;&gt;"",IF($Y$7:$Y$11&lt;&gt;"",ROW($Y$7:$Y$11)-MIN(ROW($Y$7:$Y$11))+1,""),""),ROW()-ROW(A$14)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <f t="array" ref="AD14">IFERROR(CONCATENATE((INDEX($AG$7:$AG$11,SMALL(IF($AG$7:$AG$11&lt;&gt;"",IF($AD$7:$AD$11&lt;&gt;"",ROW($AD$7:$AD$11)-MIN(ROW($AD$7:$AD$11))+1,""),""),ROW()-ROW(A$14)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <f t="array" ref="AE14">IFERROR(CONCATENATE(TEXT(INDEX($AD$7:$AD$11,SMALL(IF($AG$7:$AG$11&lt;&gt;"",IF($AD$7:$AD$11&lt;&gt;"",ROW($AD$7:$AD$11)-MIN(ROW($AD$7:$AD$11))+1,""),""),ROW()-ROW(A$14)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <f t="array" ref="AF14">IFERROR(CONCATENATE((INDEX($A$7:$A$11,SMALL(IF($AG$7:$AG$11&lt;&gt;"",IF($AD$7:$AD$11&lt;&gt;"",ROW($AD$7:$AD$11)-MIN(ROW($AD$7:$AD$11))+1,""),""),ROW()-ROW(A$14)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <f t="array" ref="AI14">IFERROR(CONCATENATE((INDEX($AL$7:$AL$11,SMALL(IF($AL$7:$AL$11&lt;&gt;"",IF($AI$7:$AI$11&lt;&gt;"",ROW($AI$7:$AI$11)-MIN(ROW($AI$7:$AI$11))+1,""),""),ROW()-ROW(A$14)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <f t="array" ref="AJ14">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$11,SMALL(IF($AL$7:$AL$11&lt;&gt;"",IF($AI$7:$AI$11&lt;&gt;"",ROW($AI$7:$AI$11)-MIN(ROW($AI$7:$AI$11))+1,""),""),ROW()-ROW(A$14)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <f t="array" ref="AK14">IFERROR(CONCATENATE((INDEX($A$7:$A$11,SMALL(IF($AL$7:$AL$11&lt;&gt;"",IF($AI$7:$AI$11&lt;&gt;"",ROW($AI$7:$AI$11)-MIN(ROW($AI$7:$AI$11))+1,""),""),ROW()-ROW(A$14)+1))),),"")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:38">
-      <c r="A15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15" s="7">
-        <f>IFERROR(IF(OR(J7:J13),COUNTIF(J7:J13,"&gt;0")&amp;" of "&amp;ROWS(J7:J13)&amp;" parts purchased",""),"")</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="7">
-        <f>IFERROR(IF(OR(O7:O13),COUNTIF(O7:O13,"&gt;0")&amp;" of "&amp;ROWS(O7:O13)&amp;" parts purchased",""),"")</f>
-        <v>0</v>
-      </c>
-      <c r="T15" s="7">
-        <f>IFERROR(IF(OR(T7:T13),COUNTIF(T7:T13,"&gt;0")&amp;" of "&amp;ROWS(T7:T13)&amp;" parts purchased",""),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="7">
-        <f>IFERROR(IF(OR(Y7:Y13),COUNTIF(Y7:Y13,"&gt;0")&amp;" of "&amp;ROWS(Y7:Y13)&amp;" parts purchased",""),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AD15" s="7">
-        <f>IFERROR(IF(OR(AD7:AD13),COUNTIF(AD7:AD13,"&gt;0")&amp;" of "&amp;ROWS(AD7:AD13)&amp;" parts purchased",""),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AI15" s="7">
-        <f>IFERROR(IF(OR(AI7:AI13),COUNTIF(AI7:AI13,"&gt;0")&amp;" of "&amp;ROWS(AI7:AI13)&amp;" parts purchased",""),"")</f>
+      <c r="J15">
+        <f t="array" ref="J15">IFERROR(CONCATENATE(TEXT(INDEX($J$7:$J$11,SMALL(IF($M$7:$M$11&lt;&gt;"",IF($J$7:$J$11&lt;&gt;"",ROW($J$7:$J$11)-MIN(ROW($J$7:$J$11))+1,""),""),ROW()-ROW(A$14)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="array" ref="K15">IFERROR(CONCATENATE((INDEX($M$7:$M$11,SMALL(IF($M$7:$M$11&lt;&gt;"",IF($J$7:$J$11&lt;&gt;"",ROW($J$7:$J$11)-MIN(ROW($J$7:$J$11))+1,""),""),ROW()-ROW(A$14)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="array" ref="L15">IFERROR(CONCATENATE((INDEX($A$7:$A$11,SMALL(IF($M$7:$M$11&lt;&gt;"",IF($J$7:$J$11&lt;&gt;"",ROW($J$7:$J$11)-MIN(ROW($J$7:$J$11))+1,""),""),ROW()-ROW(A$14)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="array" ref="O15">IFERROR(CONCATENATE((INDEX($R$7:$R$11,SMALL(IF($R$7:$R$11&lt;&gt;"",IF($O$7:$O$11&lt;&gt;"",ROW($O$7:$O$11)-MIN(ROW($O$7:$O$11))+1,""),""),ROW()-ROW(A$14)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f t="array" ref="P15">IFERROR(CONCATENATE(TEXT(INDEX($O$7:$O$11,SMALL(IF($R$7:$R$11&lt;&gt;"",IF($O$7:$O$11&lt;&gt;"",ROW($O$7:$O$11)-MIN(ROW($O$7:$O$11))+1,""),""),ROW()-ROW(A$14)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f t="array" ref="Q15">IFERROR(CONCATENATE((INDEX($A$7:$A$11,SMALL(IF($R$7:$R$11&lt;&gt;"",IF($O$7:$O$11&lt;&gt;"",ROW($O$7:$O$11)-MIN(ROW($O$7:$O$11))+1,""),""),ROW()-ROW(A$14)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="array" ref="T15">IFERROR(CONCATENATE((INDEX($W$7:$W$11,SMALL(IF($W$7:$W$11&lt;&gt;"",IF($T$7:$T$11&lt;&gt;"",ROW($T$7:$T$11)-MIN(ROW($T$7:$T$11))+1,""),""),ROW()-ROW(A$14)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f t="array" ref="U15">IFERROR(CONCATENATE(TEXT(INDEX($T$7:$T$11,SMALL(IF($W$7:$W$11&lt;&gt;"",IF($T$7:$T$11&lt;&gt;"",ROW($T$7:$T$11)-MIN(ROW($T$7:$T$11))+1,""),""),ROW()-ROW(A$14)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f t="array" ref="V15">IFERROR(CONCATENATE((INDEX($A$7:$A$11,SMALL(IF($W$7:$W$11&lt;&gt;"",IF($T$7:$T$11&lt;&gt;"",ROW($T$7:$T$11)-MIN(ROW($T$7:$T$11))+1,""),""),ROW()-ROW(A$14)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <f t="array" ref="Y15">IFERROR(CONCATENATE((INDEX($AB$7:$AB$11,SMALL(IF($AB$7:$AB$11&lt;&gt;"",IF($Y$7:$Y$11&lt;&gt;"",ROW($Y$7:$Y$11)-MIN(ROW($Y$7:$Y$11))+1,""),""),ROW()-ROW(A$14)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <f t="array" ref="Z15">IFERROR(CONCATENATE(TEXT(INDEX($Y$7:$Y$11,SMALL(IF($AB$7:$AB$11&lt;&gt;"",IF($Y$7:$Y$11&lt;&gt;"",ROW($Y$7:$Y$11)-MIN(ROW($Y$7:$Y$11))+1,""),""),ROW()-ROW(A$14)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <f t="array" ref="AA15">IFERROR(CONCATENATE((INDEX($A$7:$A$11,SMALL(IF($AB$7:$AB$11&lt;&gt;"",IF($Y$7:$Y$11&lt;&gt;"",ROW($Y$7:$Y$11)-MIN(ROW($Y$7:$Y$11))+1,""),""),ROW()-ROW(A$14)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <f t="array" ref="AD15">IFERROR(CONCATENATE((INDEX($AG$7:$AG$11,SMALL(IF($AG$7:$AG$11&lt;&gt;"",IF($AD$7:$AD$11&lt;&gt;"",ROW($AD$7:$AD$11)-MIN(ROW($AD$7:$AD$11))+1,""),""),ROW()-ROW(A$14)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <f t="array" ref="AE15">IFERROR(CONCATENATE(TEXT(INDEX($AD$7:$AD$11,SMALL(IF($AG$7:$AG$11&lt;&gt;"",IF($AD$7:$AD$11&lt;&gt;"",ROW($AD$7:$AD$11)-MIN(ROW($AD$7:$AD$11))+1,""),""),ROW()-ROW(A$14)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <f t="array" ref="AF15">IFERROR(CONCATENATE((INDEX($A$7:$A$11,SMALL(IF($AG$7:$AG$11&lt;&gt;"",IF($AD$7:$AD$11&lt;&gt;"",ROW($AD$7:$AD$11)-MIN(ROW($AD$7:$AD$11))+1,""),""),ROW()-ROW(A$14)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <f t="array" ref="AI15">IFERROR(CONCATENATE((INDEX($AL$7:$AL$11,SMALL(IF($AL$7:$AL$11&lt;&gt;"",IF($AI$7:$AI$11&lt;&gt;"",ROW($AI$7:$AI$11)-MIN(ROW($AI$7:$AI$11))+1,""),""),ROW()-ROW(A$14)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <f t="array" ref="AJ15">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$11,SMALL(IF($AL$7:$AL$11&lt;&gt;"",IF($AI$7:$AI$11&lt;&gt;"",ROW($AI$7:$AI$11)-MIN(ROW($AI$7:$AI$11))+1,""),""),ROW()-ROW(A$14)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <f t="array" ref="AK15">IFERROR(CONCATENATE((INDEX($A$7:$A$11,SMALL(IF($AL$7:$AL$11&lt;&gt;"",IF($AI$7:$AI$11&lt;&gt;"",ROW($AI$7:$AI$11)-MIN(ROW($AI$7:$AI$11))+1,""),""),ROW()-ROW(A$14)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:38">
       <c r="J16">
-        <f t="array" ref="J16">IFERROR(CONCATENATE(TEXT(INDEX($J$7:$J$13,SMALL(IF($M$7:$M$13&lt;&gt;"",IF($J$7:$J$13&lt;&gt;"",ROW($J$7:$J$13)-MIN(ROW($J$7:$J$13))+1,""),""),ROW()-ROW(A$16)+1)),"##0"),","),"")</f>
+        <f t="array" ref="J16">IFERROR(CONCATENATE(TEXT(INDEX($J$7:$J$11,SMALL(IF($M$7:$M$11&lt;&gt;"",IF($J$7:$J$11&lt;&gt;"",ROW($J$7:$J$11)-MIN(ROW($J$7:$J$11))+1,""),""),ROW()-ROW(A$14)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="K16">
-        <f t="array" ref="K16">IFERROR(CONCATENATE((INDEX($M$7:$M$13,SMALL(IF($M$7:$M$13&lt;&gt;"",IF($J$7:$J$13&lt;&gt;"",ROW($J$7:$J$13)-MIN(ROW($J$7:$J$13))+1,""),""),ROW()-ROW(A$16)+1))),","),"")</f>
+        <f t="array" ref="K16">IFERROR(CONCATENATE((INDEX($M$7:$M$11,SMALL(IF($M$7:$M$11&lt;&gt;"",IF($J$7:$J$11&lt;&gt;"",ROW($J$7:$J$11)-MIN(ROW($J$7:$J$11))+1,""),""),ROW()-ROW(A$14)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="L16">
-        <f t="array" ref="L16">IFERROR(CONCATENATE((INDEX($A$7:$A$13,SMALL(IF($M$7:$M$13&lt;&gt;"",IF($J$7:$J$13&lt;&gt;"",ROW($J$7:$J$13)-MIN(ROW($J$7:$J$13))+1,""),""),ROW()-ROW(A$16)+1))),),"")</f>
+        <f t="array" ref="L16">IFERROR(CONCATENATE((INDEX($A$7:$A$11,SMALL(IF($M$7:$M$11&lt;&gt;"",IF($J$7:$J$11&lt;&gt;"",ROW($J$7:$J$11)-MIN(ROW($J$7:$J$11))+1,""),""),ROW()-ROW(A$14)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="O16">
-        <f t="array" ref="O16">IFERROR(CONCATENATE((INDEX($R$7:$R$13,SMALL(IF($R$7:$R$13&lt;&gt;"",IF($O$7:$O$13&lt;&gt;"",ROW($O$7:$O$13)-MIN(ROW($O$7:$O$13))+1,""),""),ROW()-ROW(A$16)+1)))," "),"")</f>
+        <f t="array" ref="O16">IFERROR(CONCATENATE((INDEX($R$7:$R$11,SMALL(IF($R$7:$R$11&lt;&gt;"",IF($O$7:$O$11&lt;&gt;"",ROW($O$7:$O$11)-MIN(ROW($O$7:$O$11))+1,""),""),ROW()-ROW(A$14)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="P16">
-        <f t="array" ref="P16">IFERROR(CONCATENATE(TEXT(INDEX($O$7:$O$13,SMALL(IF($R$7:$R$13&lt;&gt;"",IF($O$7:$O$13&lt;&gt;"",ROW($O$7:$O$13)-MIN(ROW($O$7:$O$13))+1,""),""),ROW()-ROW(A$16)+1)),"##0")," "),"")</f>
+        <f t="array" ref="P16">IFERROR(CONCATENATE(TEXT(INDEX($O$7:$O$11,SMALL(IF($R$7:$R$11&lt;&gt;"",IF($O$7:$O$11&lt;&gt;"",ROW($O$7:$O$11)-MIN(ROW($O$7:$O$11))+1,""),""),ROW()-ROW(A$14)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q16">
-        <f t="array" ref="Q16">IFERROR(CONCATENATE((INDEX($A$7:$A$13,SMALL(IF($R$7:$R$13&lt;&gt;"",IF($O$7:$O$13&lt;&gt;"",ROW($O$7:$O$13)-MIN(ROW($O$7:$O$13))+1,""),""),ROW()-ROW(A$16)+1))),),"")</f>
+        <f t="array" ref="Q16">IFERROR(CONCATENATE((INDEX($A$7:$A$11,SMALL(IF($R$7:$R$11&lt;&gt;"",IF($O$7:$O$11&lt;&gt;"",ROW($O$7:$O$11)-MIN(ROW($O$7:$O$11))+1,""),""),ROW()-ROW(A$14)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="T16">
-        <f t="array" ref="T16">IFERROR(CONCATENATE((INDEX($W$7:$W$13,SMALL(IF($W$7:$W$13&lt;&gt;"",IF($T$7:$T$13&lt;&gt;"",ROW($T$7:$T$13)-MIN(ROW($T$7:$T$13))+1,""),""),ROW()-ROW(A$16)+1)))," "),"")</f>
+        <f t="array" ref="T16">IFERROR(CONCATENATE((INDEX($W$7:$W$11,SMALL(IF($W$7:$W$11&lt;&gt;"",IF($T$7:$T$11&lt;&gt;"",ROW($T$7:$T$11)-MIN(ROW($T$7:$T$11))+1,""),""),ROW()-ROW(A$14)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="U16">
-        <f t="array" ref="U16">IFERROR(CONCATENATE(TEXT(INDEX($T$7:$T$13,SMALL(IF($W$7:$W$13&lt;&gt;"",IF($T$7:$T$13&lt;&gt;"",ROW($T$7:$T$13)-MIN(ROW($T$7:$T$13))+1,""),""),ROW()-ROW(A$16)+1)),"##0")," "),"")</f>
+        <f t="array" ref="U16">IFERROR(CONCATENATE(TEXT(INDEX($T$7:$T$11,SMALL(IF($W$7:$W$11&lt;&gt;"",IF($T$7:$T$11&lt;&gt;"",ROW($T$7:$T$11)-MIN(ROW($T$7:$T$11))+1,""),""),ROW()-ROW(A$14)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="V16">
-        <f t="array" ref="V16">IFERROR(CONCATENATE((INDEX($A$7:$A$13,SMALL(IF($W$7:$W$13&lt;&gt;"",IF($T$7:$T$13&lt;&gt;"",ROW($T$7:$T$13)-MIN(ROW($T$7:$T$13))+1,""),""),ROW()-ROW(A$16)+1))),),"")</f>
+        <f t="array" ref="V16">IFERROR(CONCATENATE((INDEX($A$7:$A$11,SMALL(IF($W$7:$W$11&lt;&gt;"",IF($T$7:$T$11&lt;&gt;"",ROW($T$7:$T$11)-MIN(ROW($T$7:$T$11))+1,""),""),ROW()-ROW(A$14)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Y16">
-        <f t="array" ref="Y16">IFERROR(CONCATENATE((INDEX($AB$7:$AB$13,SMALL(IF($AB$7:$AB$13&lt;&gt;"",IF($Y$7:$Y$13&lt;&gt;"",ROW($Y$7:$Y$13)-MIN(ROW($Y$7:$Y$13))+1,""),""),ROW()-ROW(A$16)+1))),","),"")</f>
+        <f t="array" ref="Y16">IFERROR(CONCATENATE((INDEX($AB$7:$AB$11,SMALL(IF($AB$7:$AB$11&lt;&gt;"",IF($Y$7:$Y$11&lt;&gt;"",ROW($Y$7:$Y$11)-MIN(ROW($Y$7:$Y$11))+1,""),""),ROW()-ROW(A$14)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z16">
-        <f t="array" ref="Z16">IFERROR(CONCATENATE(TEXT(INDEX($Y$7:$Y$13,SMALL(IF($AB$7:$AB$13&lt;&gt;"",IF($Y$7:$Y$13&lt;&gt;"",ROW($Y$7:$Y$13)-MIN(ROW($Y$7:$Y$13))+1,""),""),ROW()-ROW(A$16)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Z16">IFERROR(CONCATENATE(TEXT(INDEX($Y$7:$Y$11,SMALL(IF($AB$7:$AB$11&lt;&gt;"",IF($Y$7:$Y$11&lt;&gt;"",ROW($Y$7:$Y$11)-MIN(ROW($Y$7:$Y$11))+1,""),""),ROW()-ROW(A$14)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AA16">
-        <f t="array" ref="AA16">IFERROR(CONCATENATE((INDEX($A$7:$A$13,SMALL(IF($AB$7:$AB$13&lt;&gt;"",IF($Y$7:$Y$13&lt;&gt;"",ROW($Y$7:$Y$13)-MIN(ROW($Y$7:$Y$13))+1,""),""),ROW()-ROW(A$16)+1))),),"")</f>
+        <f t="array" ref="AA16">IFERROR(CONCATENATE((INDEX($A$7:$A$11,SMALL(IF($AB$7:$AB$11&lt;&gt;"",IF($Y$7:$Y$11&lt;&gt;"",ROW($Y$7:$Y$11)-MIN(ROW($Y$7:$Y$11))+1,""),""),ROW()-ROW(A$14)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AD16">
-        <f t="array" ref="AD16">IFERROR(CONCATENATE((INDEX($AG$7:$AG$13,SMALL(IF($AG$7:$AG$13&lt;&gt;"",IF($AD$7:$AD$13&lt;&gt;"",ROW($AD$7:$AD$13)-MIN(ROW($AD$7:$AD$13))+1,""),""),ROW()-ROW(A$16)+1)))," "),"")</f>
+        <f t="array" ref="AD16">IFERROR(CONCATENATE((INDEX($AG$7:$AG$11,SMALL(IF($AG$7:$AG$11&lt;&gt;"",IF($AD$7:$AD$11&lt;&gt;"",ROW($AD$7:$AD$11)-MIN(ROW($AD$7:$AD$11))+1,""),""),ROW()-ROW(A$14)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE16">
-        <f t="array" ref="AE16">IFERROR(CONCATENATE(TEXT(INDEX($AD$7:$AD$13,SMALL(IF($AG$7:$AG$13&lt;&gt;"",IF($AD$7:$AD$13&lt;&gt;"",ROW($AD$7:$AD$13)-MIN(ROW($AD$7:$AD$13))+1,""),""),ROW()-ROW(A$16)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AE16">IFERROR(CONCATENATE(TEXT(INDEX($AD$7:$AD$11,SMALL(IF($AG$7:$AG$11&lt;&gt;"",IF($AD$7:$AD$11&lt;&gt;"",ROW($AD$7:$AD$11)-MIN(ROW($AD$7:$AD$11))+1,""),""),ROW()-ROW(A$14)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AF16">
-        <f t="array" ref="AF16">IFERROR(CONCATENATE((INDEX($A$7:$A$13,SMALL(IF($AG$7:$AG$13&lt;&gt;"",IF($AD$7:$AD$13&lt;&gt;"",ROW($AD$7:$AD$13)-MIN(ROW($AD$7:$AD$13))+1,""),""),ROW()-ROW(A$16)+1))),),"")</f>
+        <f t="array" ref="AF16">IFERROR(CONCATENATE((INDEX($A$7:$A$11,SMALL(IF($AG$7:$AG$11&lt;&gt;"",IF($AD$7:$AD$11&lt;&gt;"",ROW($AD$7:$AD$11)-MIN(ROW($AD$7:$AD$11))+1,""),""),ROW()-ROW(A$14)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI16">
-        <f t="array" ref="AI16">IFERROR(CONCATENATE((INDEX($AL$7:$AL$13,SMALL(IF($AL$7:$AL$13&lt;&gt;"",IF($AI$7:$AI$13&lt;&gt;"",ROW($AI$7:$AI$13)-MIN(ROW($AI$7:$AI$13))+1,""),""),ROW()-ROW(A$16)+1)))," "),"")</f>
+        <f t="array" ref="AI16">IFERROR(CONCATENATE((INDEX($AL$7:$AL$11,SMALL(IF($AL$7:$AL$11&lt;&gt;"",IF($AI$7:$AI$11&lt;&gt;"",ROW($AI$7:$AI$11)-MIN(ROW($AI$7:$AI$11))+1,""),""),ROW()-ROW(A$14)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ16">
-        <f t="array" ref="AJ16">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$13,SMALL(IF($AL$7:$AL$13&lt;&gt;"",IF($AI$7:$AI$13&lt;&gt;"",ROW($AI$7:$AI$13)-MIN(ROW($AI$7:$AI$13))+1,""),""),ROW()-ROW(A$16)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ16">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$11,SMALL(IF($AL$7:$AL$11&lt;&gt;"",IF($AI$7:$AI$11&lt;&gt;"",ROW($AI$7:$AI$11)-MIN(ROW($AI$7:$AI$11))+1,""),""),ROW()-ROW(A$14)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK16">
-        <f t="array" ref="AK16">IFERROR(CONCATENATE((INDEX($A$7:$A$13,SMALL(IF($AL$7:$AL$13&lt;&gt;"",IF($AI$7:$AI$13&lt;&gt;"",ROW($AI$7:$AI$13)-MIN(ROW($AI$7:$AI$13))+1,""),""),ROW()-ROW(A$16)+1))),),"")</f>
+        <f t="array" ref="AK16">IFERROR(CONCATENATE((INDEX($A$7:$A$11,SMALL(IF($AL$7:$AL$11&lt;&gt;"",IF($AI$7:$AI$11&lt;&gt;"",ROW($AI$7:$AI$11)-MIN(ROW($AI$7:$AI$11))+1,""),""),ROW()-ROW(A$14)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="10:37">
       <c r="J17">
-        <f t="array" ref="J17">IFERROR(CONCATENATE(TEXT(INDEX($J$7:$J$13,SMALL(IF($M$7:$M$13&lt;&gt;"",IF($J$7:$J$13&lt;&gt;"",ROW($J$7:$J$13)-MIN(ROW($J$7:$J$13))+1,""),""),ROW()-ROW(A$16)+1)),"##0"),","),"")</f>
+        <f t="array" ref="J17">IFERROR(CONCATENATE(TEXT(INDEX($J$7:$J$11,SMALL(IF($M$7:$M$11&lt;&gt;"",IF($J$7:$J$11&lt;&gt;"",ROW($J$7:$J$11)-MIN(ROW($J$7:$J$11))+1,""),""),ROW()-ROW(A$14)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="K17">
-        <f t="array" ref="K17">IFERROR(CONCATENATE((INDEX($M$7:$M$13,SMALL(IF($M$7:$M$13&lt;&gt;"",IF($J$7:$J$13&lt;&gt;"",ROW($J$7:$J$13)-MIN(ROW($J$7:$J$13))+1,""),""),ROW()-ROW(A$16)+1))),","),"")</f>
+        <f t="array" ref="K17">IFERROR(CONCATENATE((INDEX($M$7:$M$11,SMALL(IF($M$7:$M$11&lt;&gt;"",IF($J$7:$J$11&lt;&gt;"",ROW($J$7:$J$11)-MIN(ROW($J$7:$J$11))+1,""),""),ROW()-ROW(A$14)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="L17">
-        <f t="array" ref="L17">IFERROR(CONCATENATE((INDEX($A$7:$A$13,SMALL(IF($M$7:$M$13&lt;&gt;"",IF($J$7:$J$13&lt;&gt;"",ROW($J$7:$J$13)-MIN(ROW($J$7:$J$13))+1,""),""),ROW()-ROW(A$16)+1))),),"")</f>
+        <f t="array" ref="L17">IFERROR(CONCATENATE((INDEX($A$7:$A$11,SMALL(IF($M$7:$M$11&lt;&gt;"",IF($J$7:$J$11&lt;&gt;"",ROW($J$7:$J$11)-MIN(ROW($J$7:$J$11))+1,""),""),ROW()-ROW(A$14)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="O17">
-        <f t="array" ref="O17">IFERROR(CONCATENATE((INDEX($R$7:$R$13,SMALL(IF($R$7:$R$13&lt;&gt;"",IF($O$7:$O$13&lt;&gt;"",ROW($O$7:$O$13)-MIN(ROW($O$7:$O$13))+1,""),""),ROW()-ROW(A$16)+1)))," "),"")</f>
+        <f t="array" ref="O17">IFERROR(CONCATENATE((INDEX($R$7:$R$11,SMALL(IF($R$7:$R$11&lt;&gt;"",IF($O$7:$O$11&lt;&gt;"",ROW($O$7:$O$11)-MIN(ROW($O$7:$O$11))+1,""),""),ROW()-ROW(A$14)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="P17">
-        <f t="array" ref="P17">IFERROR(CONCATENATE(TEXT(INDEX($O$7:$O$13,SMALL(IF($R$7:$R$13&lt;&gt;"",IF($O$7:$O$13&lt;&gt;"",ROW($O$7:$O$13)-MIN(ROW($O$7:$O$13))+1,""),""),ROW()-ROW(A$16)+1)),"##0")," "),"")</f>
+        <f t="array" ref="P17">IFERROR(CONCATENATE(TEXT(INDEX($O$7:$O$11,SMALL(IF($R$7:$R$11&lt;&gt;"",IF($O$7:$O$11&lt;&gt;"",ROW($O$7:$O$11)-MIN(ROW($O$7:$O$11))+1,""),""),ROW()-ROW(A$14)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q17">
-        <f t="array" ref="Q17">IFERROR(CONCATENATE((INDEX($A$7:$A$13,SMALL(IF($R$7:$R$13&lt;&gt;"",IF($O$7:$O$13&lt;&gt;"",ROW($O$7:$O$13)-MIN(ROW($O$7:$O$13))+1,""),""),ROW()-ROW(A$16)+1))),),"")</f>
+        <f t="array" ref="Q17">IFERROR(CONCATENATE((INDEX($A$7:$A$11,SMALL(IF($R$7:$R$11&lt;&gt;"",IF($O$7:$O$11&lt;&gt;"",ROW($O$7:$O$11)-MIN(ROW($O$7:$O$11))+1,""),""),ROW()-ROW(A$14)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="T17">
-        <f t="array" ref="T17">IFERROR(CONCATENATE((INDEX($W$7:$W$13,SMALL(IF($W$7:$W$13&lt;&gt;"",IF($T$7:$T$13&lt;&gt;"",ROW($T$7:$T$13)-MIN(ROW($T$7:$T$13))+1,""),""),ROW()-ROW(A$16)+1)))," "),"")</f>
+        <f t="array" ref="T17">IFERROR(CONCATENATE((INDEX($W$7:$W$11,SMALL(IF($W$7:$W$11&lt;&gt;"",IF($T$7:$T$11&lt;&gt;"",ROW($T$7:$T$11)-MIN(ROW($T$7:$T$11))+1,""),""),ROW()-ROW(A$14)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="U17">
-        <f t="array" ref="U17">IFERROR(CONCATENATE(TEXT(INDEX($T$7:$T$13,SMALL(IF($W$7:$W$13&lt;&gt;"",IF($T$7:$T$13&lt;&gt;"",ROW($T$7:$T$13)-MIN(ROW($T$7:$T$13))+1,""),""),ROW()-ROW(A$16)+1)),"##0")," "),"")</f>
+        <f t="array" ref="U17">IFERROR(CONCATENATE(TEXT(INDEX($T$7:$T$11,SMALL(IF($W$7:$W$11&lt;&gt;"",IF($T$7:$T$11&lt;&gt;"",ROW($T$7:$T$11)-MIN(ROW($T$7:$T$11))+1,""),""),ROW()-ROW(A$14)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="V17">
-        <f t="array" ref="V17">IFERROR(CONCATENATE((INDEX($A$7:$A$13,SMALL(IF($W$7:$W$13&lt;&gt;"",IF($T$7:$T$13&lt;&gt;"",ROW($T$7:$T$13)-MIN(ROW($T$7:$T$13))+1,""),""),ROW()-ROW(A$16)+1))),),"")</f>
+        <f t="array" ref="V17">IFERROR(CONCATENATE((INDEX($A$7:$A$11,SMALL(IF($W$7:$W$11&lt;&gt;"",IF($T$7:$T$11&lt;&gt;"",ROW($T$7:$T$11)-MIN(ROW($T$7:$T$11))+1,""),""),ROW()-ROW(A$14)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Y17">
-        <f t="array" ref="Y17">IFERROR(CONCATENATE((INDEX($AB$7:$AB$13,SMALL(IF($AB$7:$AB$13&lt;&gt;"",IF($Y$7:$Y$13&lt;&gt;"",ROW($Y$7:$Y$13)-MIN(ROW($Y$7:$Y$13))+1,""),""),ROW()-ROW(A$16)+1))),","),"")</f>
+        <f t="array" ref="Y17">IFERROR(CONCATENATE((INDEX($AB$7:$AB$11,SMALL(IF($AB$7:$AB$11&lt;&gt;"",IF($Y$7:$Y$11&lt;&gt;"",ROW($Y$7:$Y$11)-MIN(ROW($Y$7:$Y$11))+1,""),""),ROW()-ROW(A$14)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z17">
-        <f t="array" ref="Z17">IFERROR(CONCATENATE(TEXT(INDEX($Y$7:$Y$13,SMALL(IF($AB$7:$AB$13&lt;&gt;"",IF($Y$7:$Y$13&lt;&gt;"",ROW($Y$7:$Y$13)-MIN(ROW($Y$7:$Y$13))+1,""),""),ROW()-ROW(A$16)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Z17">IFERROR(CONCATENATE(TEXT(INDEX($Y$7:$Y$11,SMALL(IF($AB$7:$AB$11&lt;&gt;"",IF($Y$7:$Y$11&lt;&gt;"",ROW($Y$7:$Y$11)-MIN(ROW($Y$7:$Y$11))+1,""),""),ROW()-ROW(A$14)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AA17">
-        <f t="array" ref="AA17">IFERROR(CONCATENATE((INDEX($A$7:$A$13,SMALL(IF($AB$7:$AB$13&lt;&gt;"",IF($Y$7:$Y$13&lt;&gt;"",ROW($Y$7:$Y$13)-MIN(ROW($Y$7:$Y$13))+1,""),""),ROW()-ROW(A$16)+1))),),"")</f>
+        <f t="array" ref="AA17">IFERROR(CONCATENATE((INDEX($A$7:$A$11,SMALL(IF($AB$7:$AB$11&lt;&gt;"",IF($Y$7:$Y$11&lt;&gt;"",ROW($Y$7:$Y$11)-MIN(ROW($Y$7:$Y$11))+1,""),""),ROW()-ROW(A$14)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AD17">
-        <f t="array" ref="AD17">IFERROR(CONCATENATE((INDEX($AG$7:$AG$13,SMALL(IF($AG$7:$AG$13&lt;&gt;"",IF($AD$7:$AD$13&lt;&gt;"",ROW($AD$7:$AD$13)-MIN(ROW($AD$7:$AD$13))+1,""),""),ROW()-ROW(A$16)+1)))," "),"")</f>
+        <f t="array" ref="AD17">IFERROR(CONCATENATE((INDEX($AG$7:$AG$11,SMALL(IF($AG$7:$AG$11&lt;&gt;"",IF($AD$7:$AD$11&lt;&gt;"",ROW($AD$7:$AD$11)-MIN(ROW($AD$7:$AD$11))+1,""),""),ROW()-ROW(A$14)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE17">
-        <f t="array" ref="AE17">IFERROR(CONCATENATE(TEXT(INDEX($AD$7:$AD$13,SMALL(IF($AG$7:$AG$13&lt;&gt;"",IF($AD$7:$AD$13&lt;&gt;"",ROW($AD$7:$AD$13)-MIN(ROW($AD$7:$AD$13))+1,""),""),ROW()-ROW(A$16)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AE17">IFERROR(CONCATENATE(TEXT(INDEX($AD$7:$AD$11,SMALL(IF($AG$7:$AG$11&lt;&gt;"",IF($AD$7:$AD$11&lt;&gt;"",ROW($AD$7:$AD$11)-MIN(ROW($AD$7:$AD$11))+1,""),""),ROW()-ROW(A$14)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AF17">
-        <f t="array" ref="AF17">IFERROR(CONCATENATE((INDEX($A$7:$A$13,SMALL(IF($AG$7:$AG$13&lt;&gt;"",IF($AD$7:$AD$13&lt;&gt;"",ROW($AD$7:$AD$13)-MIN(ROW($AD$7:$AD$13))+1,""),""),ROW()-ROW(A$16)+1))),),"")</f>
+        <f t="array" ref="AF17">IFERROR(CONCATENATE((INDEX($A$7:$A$11,SMALL(IF($AG$7:$AG$11&lt;&gt;"",IF($AD$7:$AD$11&lt;&gt;"",ROW($AD$7:$AD$11)-MIN(ROW($AD$7:$AD$11))+1,""),""),ROW()-ROW(A$14)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI17">
-        <f t="array" ref="AI17">IFERROR(CONCATENATE((INDEX($AL$7:$AL$13,SMALL(IF($AL$7:$AL$13&lt;&gt;"",IF($AI$7:$AI$13&lt;&gt;"",ROW($AI$7:$AI$13)-MIN(ROW($AI$7:$AI$13))+1,""),""),ROW()-ROW(A$16)+1)))," "),"")</f>
+        <f t="array" ref="AI17">IFERROR(CONCATENATE((INDEX($AL$7:$AL$11,SMALL(IF($AL$7:$AL$11&lt;&gt;"",IF($AI$7:$AI$11&lt;&gt;"",ROW($AI$7:$AI$11)-MIN(ROW($AI$7:$AI$11))+1,""),""),ROW()-ROW(A$14)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ17">
-        <f t="array" ref="AJ17">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$13,SMALL(IF($AL$7:$AL$13&lt;&gt;"",IF($AI$7:$AI$13&lt;&gt;"",ROW($AI$7:$AI$13)-MIN(ROW($AI$7:$AI$13))+1,""),""),ROW()-ROW(A$16)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ17">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$11,SMALL(IF($AL$7:$AL$11&lt;&gt;"",IF($AI$7:$AI$11&lt;&gt;"",ROW($AI$7:$AI$11)-MIN(ROW($AI$7:$AI$11))+1,""),""),ROW()-ROW(A$14)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK17">
-        <f t="array" ref="AK17">IFERROR(CONCATENATE((INDEX($A$7:$A$13,SMALL(IF($AL$7:$AL$13&lt;&gt;"",IF($AI$7:$AI$13&lt;&gt;"",ROW($AI$7:$AI$13)-MIN(ROW($AI$7:$AI$13))+1,""),""),ROW()-ROW(A$16)+1))),),"")</f>
+        <f t="array" ref="AK17">IFERROR(CONCATENATE((INDEX($A$7:$A$11,SMALL(IF($AL$7:$AL$11&lt;&gt;"",IF($AI$7:$AI$11&lt;&gt;"",ROW($AI$7:$AI$11)-MIN(ROW($AI$7:$AI$11))+1,""),""),ROW()-ROW(A$14)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="10:37">
       <c r="J18">
-        <f t="array" ref="J18">IFERROR(CONCATENATE(TEXT(INDEX($J$7:$J$13,SMALL(IF($M$7:$M$13&lt;&gt;"",IF($J$7:$J$13&lt;&gt;"",ROW($J$7:$J$13)-MIN(ROW($J$7:$J$13))+1,""),""),ROW()-ROW(A$16)+1)),"##0"),","),"")</f>
+        <f t="array" ref="J18">IFERROR(CONCATENATE(TEXT(INDEX($J$7:$J$11,SMALL(IF($M$7:$M$11&lt;&gt;"",IF($J$7:$J$11&lt;&gt;"",ROW($J$7:$J$11)-MIN(ROW($J$7:$J$11))+1,""),""),ROW()-ROW(A$14)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="K18">
-        <f t="array" ref="K18">IFERROR(CONCATENATE((INDEX($M$7:$M$13,SMALL(IF($M$7:$M$13&lt;&gt;"",IF($J$7:$J$13&lt;&gt;"",ROW($J$7:$J$13)-MIN(ROW($J$7:$J$13))+1,""),""),ROW()-ROW(A$16)+1))),","),"")</f>
+        <f t="array" ref="K18">IFERROR(CONCATENATE((INDEX($M$7:$M$11,SMALL(IF($M$7:$M$11&lt;&gt;"",IF($J$7:$J$11&lt;&gt;"",ROW($J$7:$J$11)-MIN(ROW($J$7:$J$11))+1,""),""),ROW()-ROW(A$14)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="L18">
-        <f t="array" ref="L18">IFERROR(CONCATENATE((INDEX($A$7:$A$13,SMALL(IF($M$7:$M$13&lt;&gt;"",IF($J$7:$J$13&lt;&gt;"",ROW($J$7:$J$13)-MIN(ROW($J$7:$J$13))+1,""),""),ROW()-ROW(A$16)+1))),),"")</f>
+        <f t="array" ref="L18">IFERROR(CONCATENATE((INDEX($A$7:$A$11,SMALL(IF($M$7:$M$11&lt;&gt;"",IF($J$7:$J$11&lt;&gt;"",ROW($J$7:$J$11)-MIN(ROW($J$7:$J$11))+1,""),""),ROW()-ROW(A$14)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="O18">
-        <f t="array" ref="O18">IFERROR(CONCATENATE((INDEX($R$7:$R$13,SMALL(IF($R$7:$R$13&lt;&gt;"",IF($O$7:$O$13&lt;&gt;"",ROW($O$7:$O$13)-MIN(ROW($O$7:$O$13))+1,""),""),ROW()-ROW(A$16)+1)))," "),"")</f>
+        <f t="array" ref="O18">IFERROR(CONCATENATE((INDEX($R$7:$R$11,SMALL(IF($R$7:$R$11&lt;&gt;"",IF($O$7:$O$11&lt;&gt;"",ROW($O$7:$O$11)-MIN(ROW($O$7:$O$11))+1,""),""),ROW()-ROW(A$14)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="P18">
-        <f t="array" ref="P18">IFERROR(CONCATENATE(TEXT(INDEX($O$7:$O$13,SMALL(IF($R$7:$R$13&lt;&gt;"",IF($O$7:$O$13&lt;&gt;"",ROW($O$7:$O$13)-MIN(ROW($O$7:$O$13))+1,""),""),ROW()-ROW(A$16)+1)),"##0")," "),"")</f>
+        <f t="array" ref="P18">IFERROR(CONCATENATE(TEXT(INDEX($O$7:$O$11,SMALL(IF($R$7:$R$11&lt;&gt;"",IF($O$7:$O$11&lt;&gt;"",ROW($O$7:$O$11)-MIN(ROW($O$7:$O$11))+1,""),""),ROW()-ROW(A$14)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q18">
-        <f t="array" ref="Q18">IFERROR(CONCATENATE((INDEX($A$7:$A$13,SMALL(IF($R$7:$R$13&lt;&gt;"",IF($O$7:$O$13&lt;&gt;"",ROW($O$7:$O$13)-MIN(ROW($O$7:$O$13))+1,""),""),ROW()-ROW(A$16)+1))),),"")</f>
+        <f t="array" ref="Q18">IFERROR(CONCATENATE((INDEX($A$7:$A$11,SMALL(IF($R$7:$R$11&lt;&gt;"",IF($O$7:$O$11&lt;&gt;"",ROW($O$7:$O$11)-MIN(ROW($O$7:$O$11))+1,""),""),ROW()-ROW(A$14)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="T18">
-        <f t="array" ref="T18">IFERROR(CONCATENATE((INDEX($W$7:$W$13,SMALL(IF($W$7:$W$13&lt;&gt;"",IF($T$7:$T$13&lt;&gt;"",ROW($T$7:$T$13)-MIN(ROW($T$7:$T$13))+1,""),""),ROW()-ROW(A$16)+1)))," "),"")</f>
+        <f t="array" ref="T18">IFERROR(CONCATENATE((INDEX($W$7:$W$11,SMALL(IF($W$7:$W$11&lt;&gt;"",IF($T$7:$T$11&lt;&gt;"",ROW($T$7:$T$11)-MIN(ROW($T$7:$T$11))+1,""),""),ROW()-ROW(A$14)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="U18">
-        <f t="array" ref="U18">IFERROR(CONCATENATE(TEXT(INDEX($T$7:$T$13,SMALL(IF($W$7:$W$13&lt;&gt;"",IF($T$7:$T$13&lt;&gt;"",ROW($T$7:$T$13)-MIN(ROW($T$7:$T$13))+1,""),""),ROW()-ROW(A$16)+1)),"##0")," "),"")</f>
+        <f t="array" ref="U18">IFERROR(CONCATENATE(TEXT(INDEX($T$7:$T$11,SMALL(IF($W$7:$W$11&lt;&gt;"",IF($T$7:$T$11&lt;&gt;"",ROW($T$7:$T$11)-MIN(ROW($T$7:$T$11))+1,""),""),ROW()-ROW(A$14)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="V18">
-        <f t="array" ref="V18">IFERROR(CONCATENATE((INDEX($A$7:$A$13,SMALL(IF($W$7:$W$13&lt;&gt;"",IF($T$7:$T$13&lt;&gt;"",ROW($T$7:$T$13)-MIN(ROW($T$7:$T$13))+1,""),""),ROW()-ROW(A$16)+1))),),"")</f>
+        <f t="array" ref="V18">IFERROR(CONCATENATE((INDEX($A$7:$A$11,SMALL(IF($W$7:$W$11&lt;&gt;"",IF($T$7:$T$11&lt;&gt;"",ROW($T$7:$T$11)-MIN(ROW($T$7:$T$11))+1,""),""),ROW()-ROW(A$14)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Y18">
-        <f t="array" ref="Y18">IFERROR(CONCATENATE((INDEX($AB$7:$AB$13,SMALL(IF($AB$7:$AB$13&lt;&gt;"",IF($Y$7:$Y$13&lt;&gt;"",ROW($Y$7:$Y$13)-MIN(ROW($Y$7:$Y$13))+1,""),""),ROW()-ROW(A$16)+1))),","),"")</f>
+        <f t="array" ref="Y18">IFERROR(CONCATENATE((INDEX($AB$7:$AB$11,SMALL(IF($AB$7:$AB$11&lt;&gt;"",IF($Y$7:$Y$11&lt;&gt;"",ROW($Y$7:$Y$11)-MIN(ROW($Y$7:$Y$11))+1,""),""),ROW()-ROW(A$14)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z18">
-        <f t="array" ref="Z18">IFERROR(CONCATENATE(TEXT(INDEX($Y$7:$Y$13,SMALL(IF($AB$7:$AB$13&lt;&gt;"",IF($Y$7:$Y$13&lt;&gt;"",ROW($Y$7:$Y$13)-MIN(ROW($Y$7:$Y$13))+1,""),""),ROW()-ROW(A$16)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Z18">IFERROR(CONCATENATE(TEXT(INDEX($Y$7:$Y$11,SMALL(IF($AB$7:$AB$11&lt;&gt;"",IF($Y$7:$Y$11&lt;&gt;"",ROW($Y$7:$Y$11)-MIN(ROW($Y$7:$Y$11))+1,""),""),ROW()-ROW(A$14)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AA18">
-        <f t="array" ref="AA18">IFERROR(CONCATENATE((INDEX($A$7:$A$13,SMALL(IF($AB$7:$AB$13&lt;&gt;"",IF($Y$7:$Y$13&lt;&gt;"",ROW($Y$7:$Y$13)-MIN(ROW($Y$7:$Y$13))+1,""),""),ROW()-ROW(A$16)+1))),),"")</f>
+        <f t="array" ref="AA18">IFERROR(CONCATENATE((INDEX($A$7:$A$11,SMALL(IF($AB$7:$AB$11&lt;&gt;"",IF($Y$7:$Y$11&lt;&gt;"",ROW($Y$7:$Y$11)-MIN(ROW($Y$7:$Y$11))+1,""),""),ROW()-ROW(A$14)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AD18">
-        <f t="array" ref="AD18">IFERROR(CONCATENATE((INDEX($AG$7:$AG$13,SMALL(IF($AG$7:$AG$13&lt;&gt;"",IF($AD$7:$AD$13&lt;&gt;"",ROW($AD$7:$AD$13)-MIN(ROW($AD$7:$AD$13))+1,""),""),ROW()-ROW(A$16)+1)))," "),"")</f>
+        <f t="array" ref="AD18">IFERROR(CONCATENATE((INDEX($AG$7:$AG$11,SMALL(IF($AG$7:$AG$11&lt;&gt;"",IF($AD$7:$AD$11&lt;&gt;"",ROW($AD$7:$AD$11)-MIN(ROW($AD$7:$AD$11))+1,""),""),ROW()-ROW(A$14)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE18">
-        <f t="array" ref="AE18">IFERROR(CONCATENATE(TEXT(INDEX($AD$7:$AD$13,SMALL(IF($AG$7:$AG$13&lt;&gt;"",IF($AD$7:$AD$13&lt;&gt;"",ROW($AD$7:$AD$13)-MIN(ROW($AD$7:$AD$13))+1,""),""),ROW()-ROW(A$16)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AE18">IFERROR(CONCATENATE(TEXT(INDEX($AD$7:$AD$11,SMALL(IF($AG$7:$AG$11&lt;&gt;"",IF($AD$7:$AD$11&lt;&gt;"",ROW($AD$7:$AD$11)-MIN(ROW($AD$7:$AD$11))+1,""),""),ROW()-ROW(A$14)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AF18">
-        <f t="array" ref="AF18">IFERROR(CONCATENATE((INDEX($A$7:$A$13,SMALL(IF($AG$7:$AG$13&lt;&gt;"",IF($AD$7:$AD$13&lt;&gt;"",ROW($AD$7:$AD$13)-MIN(ROW($AD$7:$AD$13))+1,""),""),ROW()-ROW(A$16)+1))),),"")</f>
+        <f t="array" ref="AF18">IFERROR(CONCATENATE((INDEX($A$7:$A$11,SMALL(IF($AG$7:$AG$11&lt;&gt;"",IF($AD$7:$AD$11&lt;&gt;"",ROW($AD$7:$AD$11)-MIN(ROW($AD$7:$AD$11))+1,""),""),ROW()-ROW(A$14)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI18">
-        <f t="array" ref="AI18">IFERROR(CONCATENATE((INDEX($AL$7:$AL$13,SMALL(IF($AL$7:$AL$13&lt;&gt;"",IF($AI$7:$AI$13&lt;&gt;"",ROW($AI$7:$AI$13)-MIN(ROW($AI$7:$AI$13))+1,""),""),ROW()-ROW(A$16)+1)))," "),"")</f>
+        <f t="array" ref="AI18">IFERROR(CONCATENATE((INDEX($AL$7:$AL$11,SMALL(IF($AL$7:$AL$11&lt;&gt;"",IF($AI$7:$AI$11&lt;&gt;"",ROW($AI$7:$AI$11)-MIN(ROW($AI$7:$AI$11))+1,""),""),ROW()-ROW(A$14)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ18">
-        <f t="array" ref="AJ18">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$13,SMALL(IF($AL$7:$AL$13&lt;&gt;"",IF($AI$7:$AI$13&lt;&gt;"",ROW($AI$7:$AI$13)-MIN(ROW($AI$7:$AI$13))+1,""),""),ROW()-ROW(A$16)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ18">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$11,SMALL(IF($AL$7:$AL$11&lt;&gt;"",IF($AI$7:$AI$11&lt;&gt;"",ROW($AI$7:$AI$11)-MIN(ROW($AI$7:$AI$11))+1,""),""),ROW()-ROW(A$14)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK18">
-        <f t="array" ref="AK18">IFERROR(CONCATENATE((INDEX($A$7:$A$13,SMALL(IF($AL$7:$AL$13&lt;&gt;"",IF($AI$7:$AI$13&lt;&gt;"",ROW($AI$7:$AI$13)-MIN(ROW($AI$7:$AI$13))+1,""),""),ROW()-ROW(A$16)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="10:37">
-      <c r="J19">
-        <f t="array" ref="J19">IFERROR(CONCATENATE(TEXT(INDEX($J$7:$J$13,SMALL(IF($M$7:$M$13&lt;&gt;"",IF($J$7:$J$13&lt;&gt;"",ROW($J$7:$J$13)-MIN(ROW($J$7:$J$13))+1,""),""),ROW()-ROW(A$16)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <f t="array" ref="K19">IFERROR(CONCATENATE((INDEX($M$7:$M$13,SMALL(IF($M$7:$M$13&lt;&gt;"",IF($J$7:$J$13&lt;&gt;"",ROW($J$7:$J$13)-MIN(ROW($J$7:$J$13))+1,""),""),ROW()-ROW(A$16)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <f t="array" ref="L19">IFERROR(CONCATENATE((INDEX($A$7:$A$13,SMALL(IF($M$7:$M$13&lt;&gt;"",IF($J$7:$J$13&lt;&gt;"",ROW($J$7:$J$13)-MIN(ROW($J$7:$J$13))+1,""),""),ROW()-ROW(A$16)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <f t="array" ref="O19">IFERROR(CONCATENATE((INDEX($R$7:$R$13,SMALL(IF($R$7:$R$13&lt;&gt;"",IF($O$7:$O$13&lt;&gt;"",ROW($O$7:$O$13)-MIN(ROW($O$7:$O$13))+1,""),""),ROW()-ROW(A$16)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <f t="array" ref="P19">IFERROR(CONCATENATE(TEXT(INDEX($O$7:$O$13,SMALL(IF($R$7:$R$13&lt;&gt;"",IF($O$7:$O$13&lt;&gt;"",ROW($O$7:$O$13)-MIN(ROW($O$7:$O$13))+1,""),""),ROW()-ROW(A$16)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <f t="array" ref="Q19">IFERROR(CONCATENATE((INDEX($A$7:$A$13,SMALL(IF($R$7:$R$13&lt;&gt;"",IF($O$7:$O$13&lt;&gt;"",ROW($O$7:$O$13)-MIN(ROW($O$7:$O$13))+1,""),""),ROW()-ROW(A$16)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <f t="array" ref="T19">IFERROR(CONCATENATE((INDEX($W$7:$W$13,SMALL(IF($W$7:$W$13&lt;&gt;"",IF($T$7:$T$13&lt;&gt;"",ROW($T$7:$T$13)-MIN(ROW($T$7:$T$13))+1,""),""),ROW()-ROW(A$16)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <f t="array" ref="U19">IFERROR(CONCATENATE(TEXT(INDEX($T$7:$T$13,SMALL(IF($W$7:$W$13&lt;&gt;"",IF($T$7:$T$13&lt;&gt;"",ROW($T$7:$T$13)-MIN(ROW($T$7:$T$13))+1,""),""),ROW()-ROW(A$16)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <f t="array" ref="V19">IFERROR(CONCATENATE((INDEX($A$7:$A$13,SMALL(IF($W$7:$W$13&lt;&gt;"",IF($T$7:$T$13&lt;&gt;"",ROW($T$7:$T$13)-MIN(ROW($T$7:$T$13))+1,""),""),ROW()-ROW(A$16)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <f t="array" ref="Y19">IFERROR(CONCATENATE((INDEX($AB$7:$AB$13,SMALL(IF($AB$7:$AB$13&lt;&gt;"",IF($Y$7:$Y$13&lt;&gt;"",ROW($Y$7:$Y$13)-MIN(ROW($Y$7:$Y$13))+1,""),""),ROW()-ROW(A$16)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <f t="array" ref="Z19">IFERROR(CONCATENATE(TEXT(INDEX($Y$7:$Y$13,SMALL(IF($AB$7:$AB$13&lt;&gt;"",IF($Y$7:$Y$13&lt;&gt;"",ROW($Y$7:$Y$13)-MIN(ROW($Y$7:$Y$13))+1,""),""),ROW()-ROW(A$16)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <f t="array" ref="AA19">IFERROR(CONCATENATE((INDEX($A$7:$A$13,SMALL(IF($AB$7:$AB$13&lt;&gt;"",IF($Y$7:$Y$13&lt;&gt;"",ROW($Y$7:$Y$13)-MIN(ROW($Y$7:$Y$13))+1,""),""),ROW()-ROW(A$16)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <f t="array" ref="AD19">IFERROR(CONCATENATE((INDEX($AG$7:$AG$13,SMALL(IF($AG$7:$AG$13&lt;&gt;"",IF($AD$7:$AD$13&lt;&gt;"",ROW($AD$7:$AD$13)-MIN(ROW($AD$7:$AD$13))+1,""),""),ROW()-ROW(A$16)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <f t="array" ref="AE19">IFERROR(CONCATENATE(TEXT(INDEX($AD$7:$AD$13,SMALL(IF($AG$7:$AG$13&lt;&gt;"",IF($AD$7:$AD$13&lt;&gt;"",ROW($AD$7:$AD$13)-MIN(ROW($AD$7:$AD$13))+1,""),""),ROW()-ROW(A$16)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <f t="array" ref="AF19">IFERROR(CONCATENATE((INDEX($A$7:$A$13,SMALL(IF($AG$7:$AG$13&lt;&gt;"",IF($AD$7:$AD$13&lt;&gt;"",ROW($AD$7:$AD$13)-MIN(ROW($AD$7:$AD$13))+1,""),""),ROW()-ROW(A$16)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <f t="array" ref="AI19">IFERROR(CONCATENATE((INDEX($AL$7:$AL$13,SMALL(IF($AL$7:$AL$13&lt;&gt;"",IF($AI$7:$AI$13&lt;&gt;"",ROW($AI$7:$AI$13)-MIN(ROW($AI$7:$AI$13))+1,""),""),ROW()-ROW(A$16)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AJ19">
-        <f t="array" ref="AJ19">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$13,SMALL(IF($AL$7:$AL$13&lt;&gt;"",IF($AI$7:$AI$13&lt;&gt;"",ROW($AI$7:$AI$13)-MIN(ROW($AI$7:$AI$13))+1,""),""),ROW()-ROW(A$16)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK19">
-        <f t="array" ref="AK19">IFERROR(CONCATENATE((INDEX($A$7:$A$13,SMALL(IF($AL$7:$AL$13&lt;&gt;"",IF($AI$7:$AI$13&lt;&gt;"",ROW($AI$7:$AI$13)-MIN(ROW($AI$7:$AI$13))+1,""),""),ROW()-ROW(A$16)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="10:37">
-      <c r="J20">
-        <f t="array" ref="J20">IFERROR(CONCATENATE(TEXT(INDEX($J$7:$J$13,SMALL(IF($M$7:$M$13&lt;&gt;"",IF($J$7:$J$13&lt;&gt;"",ROW($J$7:$J$13)-MIN(ROW($J$7:$J$13))+1,""),""),ROW()-ROW(A$16)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <f t="array" ref="K20">IFERROR(CONCATENATE((INDEX($M$7:$M$13,SMALL(IF($M$7:$M$13&lt;&gt;"",IF($J$7:$J$13&lt;&gt;"",ROW($J$7:$J$13)-MIN(ROW($J$7:$J$13))+1,""),""),ROW()-ROW(A$16)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <f t="array" ref="L20">IFERROR(CONCATENATE((INDEX($A$7:$A$13,SMALL(IF($M$7:$M$13&lt;&gt;"",IF($J$7:$J$13&lt;&gt;"",ROW($J$7:$J$13)-MIN(ROW($J$7:$J$13))+1,""),""),ROW()-ROW(A$16)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <f t="array" ref="O20">IFERROR(CONCATENATE((INDEX($R$7:$R$13,SMALL(IF($R$7:$R$13&lt;&gt;"",IF($O$7:$O$13&lt;&gt;"",ROW($O$7:$O$13)-MIN(ROW($O$7:$O$13))+1,""),""),ROW()-ROW(A$16)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <f t="array" ref="P20">IFERROR(CONCATENATE(TEXT(INDEX($O$7:$O$13,SMALL(IF($R$7:$R$13&lt;&gt;"",IF($O$7:$O$13&lt;&gt;"",ROW($O$7:$O$13)-MIN(ROW($O$7:$O$13))+1,""),""),ROW()-ROW(A$16)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <f t="array" ref="Q20">IFERROR(CONCATENATE((INDEX($A$7:$A$13,SMALL(IF($R$7:$R$13&lt;&gt;"",IF($O$7:$O$13&lt;&gt;"",ROW($O$7:$O$13)-MIN(ROW($O$7:$O$13))+1,""),""),ROW()-ROW(A$16)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <f t="array" ref="T20">IFERROR(CONCATENATE((INDEX($W$7:$W$13,SMALL(IF($W$7:$W$13&lt;&gt;"",IF($T$7:$T$13&lt;&gt;"",ROW($T$7:$T$13)-MIN(ROW($T$7:$T$13))+1,""),""),ROW()-ROW(A$16)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <f t="array" ref="U20">IFERROR(CONCATENATE(TEXT(INDEX($T$7:$T$13,SMALL(IF($W$7:$W$13&lt;&gt;"",IF($T$7:$T$13&lt;&gt;"",ROW($T$7:$T$13)-MIN(ROW($T$7:$T$13))+1,""),""),ROW()-ROW(A$16)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <f t="array" ref="V20">IFERROR(CONCATENATE((INDEX($A$7:$A$13,SMALL(IF($W$7:$W$13&lt;&gt;"",IF($T$7:$T$13&lt;&gt;"",ROW($T$7:$T$13)-MIN(ROW($T$7:$T$13))+1,""),""),ROW()-ROW(A$16)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <f t="array" ref="Y20">IFERROR(CONCATENATE((INDEX($AB$7:$AB$13,SMALL(IF($AB$7:$AB$13&lt;&gt;"",IF($Y$7:$Y$13&lt;&gt;"",ROW($Y$7:$Y$13)-MIN(ROW($Y$7:$Y$13))+1,""),""),ROW()-ROW(A$16)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <f t="array" ref="Z20">IFERROR(CONCATENATE(TEXT(INDEX($Y$7:$Y$13,SMALL(IF($AB$7:$AB$13&lt;&gt;"",IF($Y$7:$Y$13&lt;&gt;"",ROW($Y$7:$Y$13)-MIN(ROW($Y$7:$Y$13))+1,""),""),ROW()-ROW(A$16)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <f t="array" ref="AA20">IFERROR(CONCATENATE((INDEX($A$7:$A$13,SMALL(IF($AB$7:$AB$13&lt;&gt;"",IF($Y$7:$Y$13&lt;&gt;"",ROW($Y$7:$Y$13)-MIN(ROW($Y$7:$Y$13))+1,""),""),ROW()-ROW(A$16)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <f t="array" ref="AD20">IFERROR(CONCATENATE((INDEX($AG$7:$AG$13,SMALL(IF($AG$7:$AG$13&lt;&gt;"",IF($AD$7:$AD$13&lt;&gt;"",ROW($AD$7:$AD$13)-MIN(ROW($AD$7:$AD$13))+1,""),""),ROW()-ROW(A$16)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <f t="array" ref="AE20">IFERROR(CONCATENATE(TEXT(INDEX($AD$7:$AD$13,SMALL(IF($AG$7:$AG$13&lt;&gt;"",IF($AD$7:$AD$13&lt;&gt;"",ROW($AD$7:$AD$13)-MIN(ROW($AD$7:$AD$13))+1,""),""),ROW()-ROW(A$16)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <f t="array" ref="AF20">IFERROR(CONCATENATE((INDEX($A$7:$A$13,SMALL(IF($AG$7:$AG$13&lt;&gt;"",IF($AD$7:$AD$13&lt;&gt;"",ROW($AD$7:$AD$13)-MIN(ROW($AD$7:$AD$13))+1,""),""),ROW()-ROW(A$16)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <f t="array" ref="AI20">IFERROR(CONCATENATE((INDEX($AL$7:$AL$13,SMALL(IF($AL$7:$AL$13&lt;&gt;"",IF($AI$7:$AI$13&lt;&gt;"",ROW($AI$7:$AI$13)-MIN(ROW($AI$7:$AI$13))+1,""),""),ROW()-ROW(A$16)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AJ20">
-        <f t="array" ref="AJ20">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$13,SMALL(IF($AL$7:$AL$13&lt;&gt;"",IF($AI$7:$AI$13&lt;&gt;"",ROW($AI$7:$AI$13)-MIN(ROW($AI$7:$AI$13))+1,""),""),ROW()-ROW(A$16)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK20">
-        <f t="array" ref="AK20">IFERROR(CONCATENATE((INDEX($A$7:$A$13,SMALL(IF($AL$7:$AL$13&lt;&gt;"",IF($AI$7:$AI$13&lt;&gt;"",ROW($AI$7:$AI$13)-MIN(ROW($AI$7:$AI$13))+1,""),""),ROW()-ROW(A$16)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="10:37">
-      <c r="J21">
-        <f t="array" ref="J21">IFERROR(CONCATENATE(TEXT(INDEX($J$7:$J$13,SMALL(IF($M$7:$M$13&lt;&gt;"",IF($J$7:$J$13&lt;&gt;"",ROW($J$7:$J$13)-MIN(ROW($J$7:$J$13))+1,""),""),ROW()-ROW(A$16)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <f t="array" ref="K21">IFERROR(CONCATENATE((INDEX($M$7:$M$13,SMALL(IF($M$7:$M$13&lt;&gt;"",IF($J$7:$J$13&lt;&gt;"",ROW($J$7:$J$13)-MIN(ROW($J$7:$J$13))+1,""),""),ROW()-ROW(A$16)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <f t="array" ref="L21">IFERROR(CONCATENATE((INDEX($A$7:$A$13,SMALL(IF($M$7:$M$13&lt;&gt;"",IF($J$7:$J$13&lt;&gt;"",ROW($J$7:$J$13)-MIN(ROW($J$7:$J$13))+1,""),""),ROW()-ROW(A$16)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <f t="array" ref="O21">IFERROR(CONCATENATE((INDEX($R$7:$R$13,SMALL(IF($R$7:$R$13&lt;&gt;"",IF($O$7:$O$13&lt;&gt;"",ROW($O$7:$O$13)-MIN(ROW($O$7:$O$13))+1,""),""),ROW()-ROW(A$16)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <f t="array" ref="P21">IFERROR(CONCATENATE(TEXT(INDEX($O$7:$O$13,SMALL(IF($R$7:$R$13&lt;&gt;"",IF($O$7:$O$13&lt;&gt;"",ROW($O$7:$O$13)-MIN(ROW($O$7:$O$13))+1,""),""),ROW()-ROW(A$16)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <f t="array" ref="Q21">IFERROR(CONCATENATE((INDEX($A$7:$A$13,SMALL(IF($R$7:$R$13&lt;&gt;"",IF($O$7:$O$13&lt;&gt;"",ROW($O$7:$O$13)-MIN(ROW($O$7:$O$13))+1,""),""),ROW()-ROW(A$16)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <f t="array" ref="T21">IFERROR(CONCATENATE((INDEX($W$7:$W$13,SMALL(IF($W$7:$W$13&lt;&gt;"",IF($T$7:$T$13&lt;&gt;"",ROW($T$7:$T$13)-MIN(ROW($T$7:$T$13))+1,""),""),ROW()-ROW(A$16)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <f t="array" ref="U21">IFERROR(CONCATENATE(TEXT(INDEX($T$7:$T$13,SMALL(IF($W$7:$W$13&lt;&gt;"",IF($T$7:$T$13&lt;&gt;"",ROW($T$7:$T$13)-MIN(ROW($T$7:$T$13))+1,""),""),ROW()-ROW(A$16)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <f t="array" ref="V21">IFERROR(CONCATENATE((INDEX($A$7:$A$13,SMALL(IF($W$7:$W$13&lt;&gt;"",IF($T$7:$T$13&lt;&gt;"",ROW($T$7:$T$13)-MIN(ROW($T$7:$T$13))+1,""),""),ROW()-ROW(A$16)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <f t="array" ref="Y21">IFERROR(CONCATENATE((INDEX($AB$7:$AB$13,SMALL(IF($AB$7:$AB$13&lt;&gt;"",IF($Y$7:$Y$13&lt;&gt;"",ROW($Y$7:$Y$13)-MIN(ROW($Y$7:$Y$13))+1,""),""),ROW()-ROW(A$16)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <f t="array" ref="Z21">IFERROR(CONCATENATE(TEXT(INDEX($Y$7:$Y$13,SMALL(IF($AB$7:$AB$13&lt;&gt;"",IF($Y$7:$Y$13&lt;&gt;"",ROW($Y$7:$Y$13)-MIN(ROW($Y$7:$Y$13))+1,""),""),ROW()-ROW(A$16)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <f t="array" ref="AA21">IFERROR(CONCATENATE((INDEX($A$7:$A$13,SMALL(IF($AB$7:$AB$13&lt;&gt;"",IF($Y$7:$Y$13&lt;&gt;"",ROW($Y$7:$Y$13)-MIN(ROW($Y$7:$Y$13))+1,""),""),ROW()-ROW(A$16)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <f t="array" ref="AD21">IFERROR(CONCATENATE((INDEX($AG$7:$AG$13,SMALL(IF($AG$7:$AG$13&lt;&gt;"",IF($AD$7:$AD$13&lt;&gt;"",ROW($AD$7:$AD$13)-MIN(ROW($AD$7:$AD$13))+1,""),""),ROW()-ROW(A$16)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <f t="array" ref="AE21">IFERROR(CONCATENATE(TEXT(INDEX($AD$7:$AD$13,SMALL(IF($AG$7:$AG$13&lt;&gt;"",IF($AD$7:$AD$13&lt;&gt;"",ROW($AD$7:$AD$13)-MIN(ROW($AD$7:$AD$13))+1,""),""),ROW()-ROW(A$16)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <f t="array" ref="AF21">IFERROR(CONCATENATE((INDEX($A$7:$A$13,SMALL(IF($AG$7:$AG$13&lt;&gt;"",IF($AD$7:$AD$13&lt;&gt;"",ROW($AD$7:$AD$13)-MIN(ROW($AD$7:$AD$13))+1,""),""),ROW()-ROW(A$16)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AI21">
-        <f t="array" ref="AI21">IFERROR(CONCATENATE((INDEX($AL$7:$AL$13,SMALL(IF($AL$7:$AL$13&lt;&gt;"",IF($AI$7:$AI$13&lt;&gt;"",ROW($AI$7:$AI$13)-MIN(ROW($AI$7:$AI$13))+1,""),""),ROW()-ROW(A$16)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AJ21">
-        <f t="array" ref="AJ21">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$13,SMALL(IF($AL$7:$AL$13&lt;&gt;"",IF($AI$7:$AI$13&lt;&gt;"",ROW($AI$7:$AI$13)-MIN(ROW($AI$7:$AI$13))+1,""),""),ROW()-ROW(A$16)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK21">
-        <f t="array" ref="AK21">IFERROR(CONCATENATE((INDEX($A$7:$A$13,SMALL(IF($AL$7:$AL$13&lt;&gt;"",IF($AI$7:$AI$13&lt;&gt;"",ROW($AI$7:$AI$13)-MIN(ROW($AI$7:$AI$13))+1,""),""),ROW()-ROW(A$16)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="10:37">
-      <c r="J22">
-        <f t="array" ref="J22">IFERROR(CONCATENATE(TEXT(INDEX($J$7:$J$13,SMALL(IF($M$7:$M$13&lt;&gt;"",IF($J$7:$J$13&lt;&gt;"",ROW($J$7:$J$13)-MIN(ROW($J$7:$J$13))+1,""),""),ROW()-ROW(A$16)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <f t="array" ref="K22">IFERROR(CONCATENATE((INDEX($M$7:$M$13,SMALL(IF($M$7:$M$13&lt;&gt;"",IF($J$7:$J$13&lt;&gt;"",ROW($J$7:$J$13)-MIN(ROW($J$7:$J$13))+1,""),""),ROW()-ROW(A$16)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <f t="array" ref="L22">IFERROR(CONCATENATE((INDEX($A$7:$A$13,SMALL(IF($M$7:$M$13&lt;&gt;"",IF($J$7:$J$13&lt;&gt;"",ROW($J$7:$J$13)-MIN(ROW($J$7:$J$13))+1,""),""),ROW()-ROW(A$16)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <f t="array" ref="O22">IFERROR(CONCATENATE((INDEX($R$7:$R$13,SMALL(IF($R$7:$R$13&lt;&gt;"",IF($O$7:$O$13&lt;&gt;"",ROW($O$7:$O$13)-MIN(ROW($O$7:$O$13))+1,""),""),ROW()-ROW(A$16)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <f t="array" ref="P22">IFERROR(CONCATENATE(TEXT(INDEX($O$7:$O$13,SMALL(IF($R$7:$R$13&lt;&gt;"",IF($O$7:$O$13&lt;&gt;"",ROW($O$7:$O$13)-MIN(ROW($O$7:$O$13))+1,""),""),ROW()-ROW(A$16)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <f t="array" ref="Q22">IFERROR(CONCATENATE((INDEX($A$7:$A$13,SMALL(IF($R$7:$R$13&lt;&gt;"",IF($O$7:$O$13&lt;&gt;"",ROW($O$7:$O$13)-MIN(ROW($O$7:$O$13))+1,""),""),ROW()-ROW(A$16)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <f t="array" ref="T22">IFERROR(CONCATENATE((INDEX($W$7:$W$13,SMALL(IF($W$7:$W$13&lt;&gt;"",IF($T$7:$T$13&lt;&gt;"",ROW($T$7:$T$13)-MIN(ROW($T$7:$T$13))+1,""),""),ROW()-ROW(A$16)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <f t="array" ref="U22">IFERROR(CONCATENATE(TEXT(INDEX($T$7:$T$13,SMALL(IF($W$7:$W$13&lt;&gt;"",IF($T$7:$T$13&lt;&gt;"",ROW($T$7:$T$13)-MIN(ROW($T$7:$T$13))+1,""),""),ROW()-ROW(A$16)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <f t="array" ref="V22">IFERROR(CONCATENATE((INDEX($A$7:$A$13,SMALL(IF($W$7:$W$13&lt;&gt;"",IF($T$7:$T$13&lt;&gt;"",ROW($T$7:$T$13)-MIN(ROW($T$7:$T$13))+1,""),""),ROW()-ROW(A$16)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <f t="array" ref="Y22">IFERROR(CONCATENATE((INDEX($AB$7:$AB$13,SMALL(IF($AB$7:$AB$13&lt;&gt;"",IF($Y$7:$Y$13&lt;&gt;"",ROW($Y$7:$Y$13)-MIN(ROW($Y$7:$Y$13))+1,""),""),ROW()-ROW(A$16)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z22">
-        <f t="array" ref="Z22">IFERROR(CONCATENATE(TEXT(INDEX($Y$7:$Y$13,SMALL(IF($AB$7:$AB$13&lt;&gt;"",IF($Y$7:$Y$13&lt;&gt;"",ROW($Y$7:$Y$13)-MIN(ROW($Y$7:$Y$13))+1,""),""),ROW()-ROW(A$16)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <f t="array" ref="AA22">IFERROR(CONCATENATE((INDEX($A$7:$A$13,SMALL(IF($AB$7:$AB$13&lt;&gt;"",IF($Y$7:$Y$13&lt;&gt;"",ROW($Y$7:$Y$13)-MIN(ROW($Y$7:$Y$13))+1,""),""),ROW()-ROW(A$16)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <f t="array" ref="AD22">IFERROR(CONCATENATE((INDEX($AG$7:$AG$13,SMALL(IF($AG$7:$AG$13&lt;&gt;"",IF($AD$7:$AD$13&lt;&gt;"",ROW($AD$7:$AD$13)-MIN(ROW($AD$7:$AD$13))+1,""),""),ROW()-ROW(A$16)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <f t="array" ref="AE22">IFERROR(CONCATENATE(TEXT(INDEX($AD$7:$AD$13,SMALL(IF($AG$7:$AG$13&lt;&gt;"",IF($AD$7:$AD$13&lt;&gt;"",ROW($AD$7:$AD$13)-MIN(ROW($AD$7:$AD$13))+1,""),""),ROW()-ROW(A$16)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <f t="array" ref="AF22">IFERROR(CONCATENATE((INDEX($A$7:$A$13,SMALL(IF($AG$7:$AG$13&lt;&gt;"",IF($AD$7:$AD$13&lt;&gt;"",ROW($AD$7:$AD$13)-MIN(ROW($AD$7:$AD$13))+1,""),""),ROW()-ROW(A$16)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AI22">
-        <f t="array" ref="AI22">IFERROR(CONCATENATE((INDEX($AL$7:$AL$13,SMALL(IF($AL$7:$AL$13&lt;&gt;"",IF($AI$7:$AI$13&lt;&gt;"",ROW($AI$7:$AI$13)-MIN(ROW($AI$7:$AI$13))+1,""),""),ROW()-ROW(A$16)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AJ22">
-        <f t="array" ref="AJ22">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$13,SMALL(IF($AL$7:$AL$13&lt;&gt;"",IF($AI$7:$AI$13&lt;&gt;"",ROW($AI$7:$AI$13)-MIN(ROW($AI$7:$AI$13))+1,""),""),ROW()-ROW(A$16)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK22">
-        <f t="array" ref="AK22">IFERROR(CONCATENATE((INDEX($A$7:$A$13,SMALL(IF($AL$7:$AL$13&lt;&gt;"",IF($AI$7:$AI$13&lt;&gt;"",ROW($AI$7:$AI$13)-MIN(ROW($AI$7:$AI$13))+1,""),""),ROW()-ROW(A$16)+1))),),"")</f>
+        <f t="array" ref="AK18">IFERROR(CONCATENATE((INDEX($A$7:$A$11,SMALL(IF($AL$7:$AL$11&lt;&gt;"",IF($AI$7:$AI$11&lt;&gt;"",ROW($AI$7:$AI$11)-MIN(ROW($AI$7:$AI$11))+1,""),""),ROW()-ROW(A$14)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2672,23 +2735,28 @@
     <mergeCell ref="AC5:AG5"/>
     <mergeCell ref="AH5:AL5"/>
   </mergeCells>
+  <conditionalFormatting sqref="AA10">
+    <cfRule type="cellIs" dxfId="4" priority="64" operator="lessThanOrEqual">
+      <formula>H10</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AA11">
-    <cfRule type="cellIs" dxfId="4" priority="38" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="69" operator="lessThanOrEqual">
       <formula>H11</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA12">
-    <cfRule type="cellIs" dxfId="4" priority="43" operator="lessThanOrEqual">
-      <formula>H12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA13">
-    <cfRule type="cellIs" dxfId="4" priority="48" operator="lessThanOrEqual">
-      <formula>H13</formula>
+  <conditionalFormatting sqref="AA7">
+    <cfRule type="cellIs" dxfId="4" priority="49" operator="lessThanOrEqual">
+      <formula>H7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA8">
+    <cfRule type="cellIs" dxfId="4" priority="54" operator="lessThanOrEqual">
+      <formula>H8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA9">
-    <cfRule type="cellIs" dxfId="4" priority="33" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="59" operator="lessThanOrEqual">
       <formula>H9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2720,34 +2788,6 @@
       <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="0" priority="21">
-      <formula>AND(ISBLANK(E12),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+4))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="22">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="23" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="24" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="0" priority="25">
-      <formula>AND(ISBLANK(E13),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+4))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="26">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="27" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="28" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F7">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(ISBLANK(E7),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+4))))</formula>
@@ -2790,86 +2830,225 @@
       <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N10">
+    <cfRule type="cellIs" dxfId="1" priority="31" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="32" operator="lessThan">
+      <formula>F10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11">
+    <cfRule type="cellIs" dxfId="1" priority="36" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="37" operator="lessThan">
+      <formula>F11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="cellIs" dxfId="1" priority="21" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="22" operator="lessThan">
+      <formula>F7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9">
+    <cfRule type="cellIs" dxfId="1" priority="26" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="27" operator="lessThan">
+      <formula>F9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10">
+    <cfRule type="cellIs" dxfId="1" priority="33" operator="greaterThan">
+      <formula>N10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O11">
+    <cfRule type="cellIs" dxfId="1" priority="38" operator="greaterThan">
+      <formula>N11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7">
+    <cfRule type="cellIs" dxfId="1" priority="23" operator="greaterThan">
+      <formula>N7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9">
+    <cfRule type="cellIs" dxfId="1" priority="28" operator="greaterThan">
+      <formula>N9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P10">
+    <cfRule type="cellIs" dxfId="4" priority="35" operator="lessThanOrEqual">
+      <formula>G10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P11">
+    <cfRule type="cellIs" dxfId="4" priority="40" operator="lessThanOrEqual">
+      <formula>G11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P7">
+    <cfRule type="cellIs" dxfId="4" priority="25" operator="lessThanOrEqual">
+      <formula>G7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P9">
+    <cfRule type="cellIs" dxfId="4" priority="30" operator="lessThanOrEqual">
+      <formula>G9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q10">
+    <cfRule type="cellIs" dxfId="4" priority="34" operator="lessThanOrEqual">
+      <formula>H10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q11">
+    <cfRule type="cellIs" dxfId="4" priority="39" operator="lessThanOrEqual">
+      <formula>H11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q7">
+    <cfRule type="cellIs" dxfId="4" priority="24" operator="lessThanOrEqual">
+      <formula>H7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q9">
+    <cfRule type="cellIs" dxfId="4" priority="29" operator="lessThanOrEqual">
+      <formula>H9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S10">
+    <cfRule type="cellIs" dxfId="1" priority="41" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="42" operator="lessThan">
+      <formula>F10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T10">
+    <cfRule type="cellIs" dxfId="1" priority="43" operator="greaterThan">
+      <formula>S10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U10">
+    <cfRule type="cellIs" dxfId="4" priority="45" operator="lessThanOrEqual">
+      <formula>G10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V10">
+    <cfRule type="cellIs" dxfId="4" priority="44" operator="lessThanOrEqual">
+      <formula>H10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X10">
+    <cfRule type="cellIs" dxfId="1" priority="61" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="62" operator="lessThan">
+      <formula>F10</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="X11">
-    <cfRule type="cellIs" dxfId="1" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="66" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="67" operator="lessThan">
       <formula>F11</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X12">
-    <cfRule type="cellIs" dxfId="1" priority="39" operator="equal">
+  <conditionalFormatting sqref="X7">
+    <cfRule type="cellIs" dxfId="1" priority="46" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="40" operator="lessThan">
-      <formula>F12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X13">
-    <cfRule type="cellIs" dxfId="1" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="47" operator="lessThan">
+      <formula>F7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X8">
+    <cfRule type="cellIs" dxfId="1" priority="51" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="45" operator="lessThan">
-      <formula>F13</formula>
+    <cfRule type="cellIs" dxfId="2" priority="52" operator="lessThan">
+      <formula>F8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X9">
-    <cfRule type="cellIs" dxfId="1" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="56" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="57" operator="lessThan">
       <formula>F9</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Y10">
+    <cfRule type="cellIs" dxfId="1" priority="63" operator="greaterThan">
+      <formula>X10</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Y11">
-    <cfRule type="cellIs" dxfId="1" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="68" operator="greaterThan">
       <formula>X11</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y12">
-    <cfRule type="cellIs" dxfId="1" priority="41" operator="greaterThan">
-      <formula>X12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y13">
-    <cfRule type="cellIs" dxfId="1" priority="46" operator="greaterThan">
-      <formula>X13</formula>
+  <conditionalFormatting sqref="Y7">
+    <cfRule type="cellIs" dxfId="1" priority="48" operator="greaterThan">
+      <formula>X7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y8">
+    <cfRule type="cellIs" dxfId="1" priority="53" operator="greaterThan">
+      <formula>X8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y9">
-    <cfRule type="cellIs" dxfId="1" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="58" operator="greaterThan">
       <formula>X9</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Z10">
+    <cfRule type="cellIs" dxfId="4" priority="65" operator="lessThanOrEqual">
+      <formula>G10</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Z11">
-    <cfRule type="cellIs" dxfId="4" priority="37" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="70" operator="lessThanOrEqual">
       <formula>G11</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z12">
-    <cfRule type="cellIs" dxfId="4" priority="42" operator="lessThanOrEqual">
-      <formula>G12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z13">
-    <cfRule type="cellIs" dxfId="4" priority="47" operator="lessThanOrEqual">
-      <formula>G13</formula>
+  <conditionalFormatting sqref="Z7">
+    <cfRule type="cellIs" dxfId="4" priority="50" operator="lessThanOrEqual">
+      <formula>G7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z8">
+    <cfRule type="cellIs" dxfId="4" priority="55" operator="lessThanOrEqual">
+      <formula>G8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z9">
-    <cfRule type="cellIs" dxfId="4" priority="32" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="60" operator="lessThanOrEqual">
       <formula>G9</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="AB9" r:id="rId1"/>
-    <hyperlink ref="AB11" r:id="rId2"/>
-    <hyperlink ref="AB12" r:id="rId3"/>
-    <hyperlink ref="AB13" r:id="rId4"/>
-    <hyperlink ref="AG13" r:id="rId5"/>
+    <hyperlink ref="R7" r:id="rId1"/>
+    <hyperlink ref="AB7" r:id="rId2"/>
+    <hyperlink ref="AB8" r:id="rId3"/>
+    <hyperlink ref="R9" r:id="rId4"/>
+    <hyperlink ref="AB9" r:id="rId5"/>
+    <hyperlink ref="R10" r:id="rId6"/>
+    <hyperlink ref="W10" r:id="rId7"/>
+    <hyperlink ref="AB10" r:id="rId8"/>
+    <hyperlink ref="R11" r:id="rId9"/>
+    <hyperlink ref="AB11" r:id="rId10"/>
+    <hyperlink ref="AG11" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId6"/>
+  <legacyDrawing r:id="rId12"/>
 </worksheet>
 </file>